--- a/500all/speech_level/speeches_CHRG-114hhrg23401.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23401.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. The Subcommittee on Information Technology of the Committee on Oversight and Government Reform and the Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies of the Committee on Homeland Security will come to order. Without objection, the chair is authorized to declare a recess at any time. I would like to start off by recognizing my friend and the chairman of the Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies, and fellow Texan, the Honorable Ratcliffe, John Ratcliffe. Over to you, sir.</t>
   </si>
   <si>
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman for yielding. The purpose of this hearing is to address the impact of the Wassenaar Arrangement, which was recently amended to propose export controls for cybersecurity products. I now recognize myself for an opening statement.    The House Homeland Security Committee's Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies and the House Oversight and Government Reform's Subcommittee on Information Technology meet today to hear from key industry and government stakeholders about the impact of the Wassenaar Arrangement, that it will have on American people, on American businesses, and on the cybersecurity industry.    I first want to start off by thanking my friend, Mr. Will Hurd, the gentleman from Texas, for co-chairing this hearing. Today, we are doing what Americans would like to see more of in Congress. Two committees that don't often work together are able to, and happy to come together to tackle an issue that's extremely important and relevant to national security and to the security of individuals' personal information. Congressman Hurd and I share the belief that one of our core duties here in Congress is to bypass the jurisdictional roadblocks, and make real progress towards keeping our citizens safe.    To the issue at hand, we know that private industry in America is excellent at responding to consumer demands. Many companies, including some of those here today, pride themselves on guaranteeing the security of their customers' personal information. Others represented here exist solely to help in securing that information. They also secure vital sectors of society such as critical infrastructure and the financial sector. Their success hinges, in part, on their ability to guarantee their own security. Today, I hope to hear from our witnesses on how the Wassenaar Arrangement in its implementation would affect these objectives.    The Wassenaar Arrangement was established 20 years ago to apply to conventional arms and dual-use goods and technology. Changes made in 2013 sought to extend export controls to cybersecurity intrusion and surveillance software and technology.    These changes were motivated by a desire to prevent authoritative regimes from repressing their people. This intent is noble. If the administration's implementation effort resulted in unified dissent from the technology and cybersecurity industries, from academics and researchers, the energy and financial sectors also voiced deep concerns. And they were echoed by civil society groups who said that the proposal could make communicating about security vulnerabilities almost impossible in certain cases. The Federal Government engages in countless ways with the American people and our international partners. When proposing actions, the government should, at a minimum, not do harm to its own people. I'm interested to hear from our government witnesses how they believe this arrangement will successfully deter the accumulation of digital weapons, which aren't constructed in factories, which don't need physical space for storage, and which don't depend on traceable means of transport.    I hope to better understand how they believe this export control framework can be effectively applied to intrusion software. I agree that we should strive to limit dangerous technologies from falling into the hands of bad actors. But national security and Americans' personal security can't be sacrificed in the process. There are many ways the United States strives to combat human rights violators. And I hope to hear today why this route wasn't chosen over other options. As we can see by the variety and the size of our witness panel, the Wassenaar Arrangement has broad implications. Recent reports and the witness testimony today demonstrate that we are far from a consensus on this issue. The administration's top three stated priorities include, and I quote, ``protecting the country's critical infrastructure from cyber threats, improving our ability to identify and report cyber incidents, and engaging with international partners to promote Internet freedom, and building support for an open, interoperable, secure, and reliable cyberspace.''    I assume that our government witnesses are well-versed in these goals and their prioritization. Yet, in reading the comments to the proposed rule and general thoughts on the cybersecurity section of the Wassenaar Arrangement, one sees a probable contradiction in the first two goals. Additionally, I think it's unlikely that this arrangement achieves the open and interoperable cyberspace that is in the public's interest. If we are to expect the cybersecurity provisions of this arrangement to be workable, we need to make sure that our stated intentions and actions are not contradictory. If we can't do that, I question why as a country we are agreeing to this updated arrangement.    Just last month, Congress passed legislation to encourage the sharing of cyber threat information. Both the private sector and the Government stand to benefit from the increased flow of valuable cyber-threat information. Today, we need to hear whether the Wassenaar Arrangement would have a counterproductive impact on such sharing, and whether it would undermine the law that the President just signed. As a Nation, we advocate for human rights, and we assist those harmed by authoritarian regimes. However, we must, first and foremost, safeguard the security of our Nation and our citizens.    I look forward to hearing from the witnesses about the best path forward and how we can come together to best protect the American people. And I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412432</t>
   </si>
   <si>
-    <t>Cedric L. Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Chairman Hurd and Chairman Ratcliffe, also Ranking Member Kelly, for convening this joint hearing on U.S. rulemaking regarding cybersecurity technology issues in the Wassenaar Arrangement. I also want to thank our panel of witnesses today, both the government and industry representatives.    The Wassenaar Arrangement consists of America's efforts, in collaboration with 40 of our trading partners, to put into place export controls for conventional arms and dual-use goods and technologies. As we know, dual-use goods and commodities, processes are technologies used primarily for civilian purposes, which can also be used to develop or enhance the capabilities of military equipment or initiatives. We find ourselves in rapidly changing times. And dual-use goods and technologies now encompass cybersecurity technologies, which are vital in protecting private, commercial, and governmental data, and protecting the operation of our information networks, both public and private. The 41 nations participating in the Wassenaar Arrangement agreed to include cybersecurity issues. And the United States has led the way.    The Department of Homeland Security's Cybersecurity and Communications Office, within the National Protection and Programs Directorate, is the storehouse of a great deal of our Nation's civilian cybersecurity expertise. And I'm glad to see Dr. Schneck as one of our witnesses today, and look forward, especially, to her perspective.    I found it helpful to frame the cybersecurity issues contained in the Wassenaar Arrangement as a series of questions. Does the proposed rule fulfill its intended goal? Does the proposed rule have any negative unintended side effects? Will modification of the proposed rule address concerns adequately?    And, finally, should the Wassenaar provision be renegotiated, or an alternative be found? If the critics of the wording of the current proposed rulemaking are right, then I'm sure the answers will be no, yes, no, yes. According to a large number of professionals, the expert restrictions for the defined cybersecurity products and technologies in the rule may certainly reduce the likelihood of repressive governments obtaining surveillance technology through legal sources, but the criminal underground would not be subject to such restrictions. And such repressive regimes might switch to those suppliers.    But let us not speculate. While my subcommittee does not appear to have any immediate legislative or oversight jurisdiction on this matter, testimony today from industry and government agencies involved, would help us to learn about the impacts of the proposed rule as drafted and how it will affect or impede not only research on the specifics of cybersecurity, but possible effects on the larger global cybersecurity community.    Mr. Chairman, at this time, I would like to yield 1-1/2 minutes to Mr. Langevin, who has been a leader and an expert in our caucus on this issue.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. I want to thank the ranking member, Ranking Member Richmond, for yielding the time. And I want to thank both chairmen and ranking members of the committee for holding this hearing. I've been closely following the intrusion software additions since BIS proposed the original rule last May. In July, several of my colleagues joined me in voicing our concerns with that regulation as part of the public comment period. And last month, 125 members joined Chairman McCaul and me in a bipartisan effort in highlighting some of those thoughts in a letter to the President's National Security Advisor.    Throughout this period, I've been thoroughly impressed by Bureau of Industry and Security's efforts to be as open as possible during the rulemaking process. And I commend you, Assistant Secretary Wolf, and your staff, for your willingness to listen to constructive feedback. I thank you for your work in that respect. I think all of us here today believe that intrusion software can be dangerous in the wrong hands. But the original proposed rule had many unintended consequences that must be addressed. I hope we will explore those barriers during this hearing, which could be detrimental to both our economic competitiveness and our national security, and that we will also come out with a clear understanding of the way forward and how to better incorporate stakeholder feedback from the outset in future rulemaking.    With that, I would like to, again, thank Chairmen Ratcliffe and Hurd and Ranking Members Richmond and Kelly for addressing this very important topic. And I'll submit my full statement for the record. And I would yield back the balance of my time.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCaul. I thank the gentlemen from Texas, both Mr. Ratcliffe and Mr. Hurd, for having this hearing today on a very important issue. It's consequential. Strengthening our Nation's cybersecurity is of the upmost importance right now, and will determine our Nation's position as a world leader in the future. The playing field for international conflict is constantly evolving. Cyber attacks can come from anywhere at any time, and without any prior notifications.    As chairman of the Homeland Security Committee, keeping Americans safe is my primary concern. And that is no simple task in such a dynamic environment. Unfortunately, the amendment to the Wassenaar Arrangement would depreciate the research, development, and deployment of important tools that we all use every day to secure against cyber attacks.    The United States has a duty to be a world leader. The establishment of a multi-national arrangement to restrict the trade of conventional arms and dual-use goods and technologies has only been possible through strong American leadership. To continue fulfilling this imperative role, the United States must ensure that such agreements support technically and practically intelligent policies on cybersecurity.    If the matter at hand was simply a question of efficacy, we wouldn't be here today. If the only concern was that the Wassenaar Arrangement might have room for improvement, this conversation would be very different. But what has been violated here is the fundamental adage of do no harm. The State Department agreed to an arrangement that would restrict a group of information security tools and products. This agreement and the proposed implementation could hobble the entire cybersecurity ecosystem, as well as cross-border data flows, and global collaboration that support it. Weakening our cyber researchers and innovative service providers is bad enough. But as we have seen again and again, any weakness in our cyber posture will percolate to other industries and harm individual Americans.    Furthermore, under the arrangement, participating States already exchange specific information on a regular basis about global transfers of certain goods and technologies. Part of the Wassenaar Arrangement is looking at that information to find dubious acquisition trends. I don't see any limitation on the ability of the Wassenaar Arrangement to pursue the stated goals of increased transparency without adding burdensome and counterproductive licensing requirements.    I hope that the witnesses are able to speak today about why the addition of intrusion software language to the arrangement was preferred as the best means of achieving American goals, instead of other options, such as through sanctions, which would address bad actors more directly without unintended consequences.    Lastly, the Homeland Security Committee worked hard in putting together and shaping information, sharing legislation which was signed into law in December. That legislation facilitates a sharing of cyber information between the Federal Government and the private sector to assist security experts and others in rapidly identifying and resolving vulnerabilities that threaten the security of our networks.    We must not backtrack on this progress. It is a priority of the Homeland Security Committee to investigate whether the domestic execution of the relevant cybersecurity section of the Wassenaar Arrangement would obstruct positive collaboration on cybersecurity that protects American information and information systems.    I hope the backlash received and the response here in the Congress will prevent the State Department from attempting to take momentous negotiations upon themselves without consultation from the stakeholders in the future. The administration must not ignore the serious, broad implication of the results. What we won't stand for is a de facto regulation of a thriving sector and cornerstone of American industry, an industry that provides the tools that we all, including governments, use to secure ourselves. I expect this hearing today will send an important message that the intrusion software language in the Wassenaar Arrangement is simply unworkable. We, in the Congress, expect that the administration will work to correct the serious issues in this arrangement moving forward. Again, I want to thank the chair and ranking member for holding this hearing. And I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank the chairman. The chair now recognizes the ranking member of the Oversight and Government Reform Subcommittee on Information Technology, the gentlelady from Illinois, Ms. Kelly.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chairman. Welcome to the witnesses participating in today's hearing on export controls for certain cybersecurity tools. The export controls for intrusion and surveillance technologies agreed to at the Wassenaar Arrangement were intended to help prevent repressive regimes from obtaining and using intrusive technology against their own citizens. These are important human rights objectives. It is also critically important that U.S. cybersecurity policies advance our overall efforts to protect information and systems from cyber attacks and data breaches.    Today's hearing is recognition of the fact that the Federal Government and private sector must work together effectively to thwart cybercrime. The Bureau of Industry and Security's proposed rule to implement the Wassenaar Arrangement's export controls on cybersecurity intrusion, and surveillance items could seriously hinder the cybersecurity industry and our national security. The language in the proposed rule would interfere with the ability of businesses and of the Federal Government to acquire and utilize cybersecurity tools that are critical to the security of information systems and data, and frustrate the real-time information sharing of vulnerability, which is relied upon to prevent or to stop a cyber attack.    Going forward, BIS and its interagency partners should reconsider their policy approach to this rulemaking, so that the export controls do not negatively affect our Nation's ability to defend against cyber threat and the policy conforms with the broader U.S. cybersecurity strategy and national security.    The Information Technology Subcommittee has held multiple hearings examining the nature of cyber threats and how to enhance the security of information and information networks. We have learned that no company or industry is immune from cyber attacks, and that cyber attackers are highly sophisticated, and constantly evolving their tactics.    We are all aware of the major breaches that American companies, contractors, and government agencies have sustained in recent years. Given this persistent threat to information systems, it is critically important that the U.S. policies and regulations are designed to enhance the tools and capabilities that ensure the security of critical information targeted by cyber attackers.    Last month, the Democratic members of this subcommittee, along with 120 other Members of Congress, signed onto a bipartisan letter to National Security Advisor Susan Rice, requesting the WhiteHouse's collaboration and advice in the development of export control policies for cybersecurity tools. In that letter, we expressed our concerns that the proposed rulemaking pertaining to export controls of intrusion software and vulnerability research could reduce the ability of private businesses and the Federal Government to defend against cyber threats and impair national security efforts.    I would like to commend BIS for anticipating the need to assess the impact of the export controls on the cybersecurity industry and requesting public comment on the effects of this proposed rule. The Bureau is currently reviewing the 264 public comments it received.    I look forward to hearing from today's witnesses on the impact of this proposed rule and discussing a path forward that achieves the human rights objectives of the export controls without negatively affecting innovation and research on cybersecurity tools and vulnerability. Thank you, Mr. Chairman. And I look forward to the witnesses' testimony.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much. Thank you, Chairman Hurd, Ranking Member Kelly, Chairman Ratcliffe, and Ranking Member Richmond, for your leadership in calling this joint subcommittee hearing today. I particularly want to thank the distinguished panel of witnesses before us today. You all play an important role in America's vital trade and business life. And I'm grateful you took the time to come help us understand a very complicated issue.    The concept of cyber and information security is fundamental to our economy across all sectors, not only for business computers and networks, but also because the issue crosses the lanes of private, personal information, and policies that governance consideration. Cyber and information security are also issues that involve the ingenuity and initiative that makes American entrepreneurs and computer software scientists leaders in the world market.    The Wassenaar Arrangement for the export control of dual-use cybersecurity products is not only technically complex, but also involves moral and ethical considerations that must be taken into account.    The United States economy is the largest in the world and the most creative, innovative, and productive. The strength of our engineers, scientists, and industrial leaders and across all sectors of American industry is unmatched. While the American worker is recognized as the most productive worker in the world, the electronic world dominates our business, information, security processes. And we depend most heavily on effective functioning of machine and computer system controls to achieve our high level of productivity. We cannot maintain these high levels of productivity without comprehensive and massive security efforts to protect not only machines and computers, but the electronic networks that we all depend on in our daily lives, ones that sustain the highest standard of living in the world for American families.    The United States leads the world in the production of cybersecurity products and systems that not only produce the software applications that keep our economy running, but also the information security products that protect our vital personal data, business information, and communications network. The treaties, agreements, and arrangements we have with our international trading partners play a fundamental role in allowing our U.S.-made products to be exported easily and without interference. And those are often intricate and detailed provisions. I am very pleased we are holding this hearing to learn more about one of the most complex issues facing international trade today. I look forward to the testimony of our witnesses. With that, I yield back.</t>
   </si>
   <si>
@@ -136,54 +115,36 @@
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman from Texas. Other members are reminded that opening statements may be submitted for the record. And as noted by others, we are pleased today to have with us a very distinguished panel of witnesses on an important topic, including Mr. Vann Van Diepen, the principal Deputy Assistant Secretary for the Bureau of International Security and Nonproliferation at the U.S. Department of State; Ms. Ann Ganzer, the Director of Conventional Arms Threat Reduction for the Bureau of International Security and Nonproliferation at the U.S. Department of State; the Honorable Kevin Wolf, the Assistant Secretary for Export Administration at the U.S. Department of Commerce; Dr. Phyllis Schneck, the Deputy Under Secretary for Cybersecurity and Communications for the National Protection and Programs Directorate at the U.S. Department of Homeland Security; Ms. Cheri Flynn McGuire, the vice president for Global Government Affairs and Cybersecurity Policy at Symantec; Mr. Iain Mulholland, the vice president for Engineering Trust and Assurance at VMware; Ms. Cristin Flynn Goodwin, the assistant general counsel for Cybersecurity at Microsoft; and, finally, Mr. Dean Garfield, the president and CEO of the Information Technology Industry Council.    Thank you all for being here today. The witnesses' full written statements will appear in the record. And at this time, I would ask all of the witnesses to stand and raise your right hand so that I can swear you in for your testimony.    Do each of you swear or affirm that the testimony you are about to provide today shall be the truth, the whole truth, and nothing but the truth so help you God? Let the record reflect that the witnesses answered in the affirmative. The chair now recognizes Mr. Van Diepen for his opening statement.</t>
   </si>
   <si>
-    <t>Van Diepen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Van Diepen. Thank you, Chairman Hurd and Chairman Ratcliffe, Ranking Members Kelly and Richmond, and members of the committees, for the opportunity to talk today about export control efforts in the challenging new area of cyber tools. As we've heard from you all, we hear almost daily about malicious cyber activities that disrupt businesses, compromise privacy, or threaten national security.    Congress itself has also recognized the overall cybersecurity threat in legislation. The 2014 National Defense Authorization Act required developing an integrated policy to control the proliferation of what it termed ``cyber weapons,'' including through multilateral enforcement activities and diplomatic engagement. To be most effective, export controls should be multilateral. The Wassenaar Arrangement has the responsibility for multilateral national security export controls on dual-use items not related to weapons of mass destruction, such as cyber tools. This 41-country regime was established in 1996 to contribute to regional and international security and stability by promoting transparency and greater responsibility in transfers of conventional arms and related dual-use goods and technologies, thus preventing destabilizing accumulations.    Upholding our international export control commitments is central to our ability to get other countries to uphold theirs, not just in Wassenaar, but in the nuclear, chemical, biological, and missile control regimes as well. Because these same cyber tools can also be used for beneficial purposes, such as identifying vulnerabilities and improving cybersecurity, we need to strike the appropriate balance in implementing such controls to promote national security objectives, while making sure that the controls' benefits clearly exceed any commercial or national security costs.    Recognizing the challenge in implementing the cyber control, the U.S. Government took the uncommon step of going through a public notice and comment process. The comments were instructive. And we take them very seriously. It is clear from the comments received that the first version of the proposed U.S. rule to implement the Wassenaar control missed the mark. And the interagency continues to work through the concerns raised.    Fortunately, the cyber control is included on the least sensitive portion of the Wassenaar list. This provides us with substantial flexibilities we can employ in the process of implementing that control nationally, just as most other Wassenaar members have done in already having implemented the cyber control for over a year without apparent controversy.    We appreciate your committee's interest in this issue. And we are committed to working closely with all the other stakeholders in the interagency, as well as industry, and the other relevant external stakeholders, to seek a balanced way forward that meets our important policy objectives while addressing the concerns raised. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Van Diepen. The chair now recognizes the Honorable Kevin Wolf for his statement.</t>
   </si>
   <si>
-    <t>Wolf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wolf. Thank you, Chairmen Hurd and Ratcliffe, Members Kelly and Richmond. My colleague from the State Department described well the background and purposes of the Wassenaar Arrangement. The U.S. Department of State leads the U.S. delegation to the Wassenaar Arrangement. But it is my agency, the Commerce Department's Bureau of Industry and Security, which is responsible for developing and administering the set of regulations, the Export Administration regulations that would implement the multilateral agreements that were just described. And in this case, the Wassenaar Arrangement for us pertains to dual-use items and some military items on the Wassenaar list.    Other agencies, primarily the Department of Defense, participates in developing proposed changes to these lists, proposed controls to submit to the Wassenaar and other arrangements, deciding which ones to agree upon, and then review the regulations that we would implement to implement the agreement. And then Congress also has technical advisory committees that work with us on reviewing the proposed changes and proposals to be submitted to the various regimes.    In December of 2013, the Wassenaar Arrangement approved new export controls on command and delivery platforms for intrusion software and related technology. Specifically, the entries in category 4 dealing with computers of the dual-use control list would control non-publicly available software that generates, operates, delivers, or communicates with intrusion software. And an intrusion software was defined as software designed to covertly gain access to a computer or other network device and, once inside, to extract or modify data or modify an execution path of the device to allow the execution of externally provided instructions.    Related hardware and technology entries would control systems and equipment for generating, operating, delivering, or communicating with this intrusion software. And then, also, technology for developing the intrusion software was controlled as well.    The original proposal for these controls came from another Wassenaar member in 2012. And the examples of the types of commercial hacking software intended to be captured by the control included those offered by Hacking Team from Italy, Gamma/Fin-Fisher from Germany, and Vupen in France.    The controls were novel in that they were the first foray by a multilateral regime into the area of offensive cyber tools. The agreed-upon entries covering software intentionally excluded intrusion software itself from control, that is, certain kinds of malware, because of a general understanding that everyone with a mobile device might have such software unwittingly on their device and didn't want to expose them to perpetual liability. In beginning, however, the process at Commerce of drafting the regulation to implement the control, we grew concerned that despite several exclusions set forth in the definition of intrusion software, the scope of the controls, particularly the developmental technology controls, might be far broader in scope than originally understood by Commerce and its advisory committees.    We particularly became concerned that the category 4 technology control list entry in the draft regulation technology for the development of intrusion software could inadvertently significantly harm both U.S. Government and U.S. private sector cybersecurity programs and efforts if implemented.    So in order to not take action that would inadvertently harm our Nation's ability to engage in critical cyber defense and related research work, we decided, in May of 2015, to take the unprecedented step of publishing these Wassenaar control list entries as a proposed rule with a request for private sector comments, rather than our usual step of publishing it as a final rule.    Our hope was that the private sector comments would give us a better sense for whether the rule would have unintended impacts on our cyber defense and cyber research ecosystems. All dual-use controls have consequences and impose cost on the private sector. That's the nature of controls. But this one was different because the impact would not just be on the economic bottom line of a company, but on our Government's and our Nation's ability to share efficiently and quickly the types of technology necessary to conduct cyber defense and related research.    Also, immediately following the publication of the proposed rule, we received questions from U.S. private sector and others in the U.S. Government about the intended scope of the controls. And in order to make sure that we addressed all of their concerns, we published a series of FAQs. As will be described later by our industry panelists and as is described in more detail in my testimony, we received over 260 comments, generally, all of them negative, describing several concerns that you've all summarized well in your opening statements.    I want to make clear that the administration has not made any decisions regarding what the next step will be other than that the next step will not be a final rule. We're continuing to review the comments. We're continuing to work with our colleagues in government and industry with expertise in equities and cyber defense and related research. We welcome all views and all information, which is why we thank you for this hearing and whatever input or suggestions or advice that you have for us. So thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Wolf. Dr. Schneck, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Schneck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schneck. Thank you. Chairman Hurd, Chairman Ratcliffe, Ranking Member Kelly, Ranking Member Richmond, and members of these committees, thank you for the opportunity to testify today. And thank you as well for all the support that all of your committee continue to provide to the Department of Homeland Security, most recently in the Cybersecurity Act of 2015, which was discussed earlier. Because of that legislation, we will be able to, at the Department, with our industry partners, with our interagency partners, and global partners, share cyber threat information more rapidly, and in near real time.    We appreciate the critical part that export controls play in ensuring that bad-intentioned people do not get their hands on good technology to hurt others. We also appreciate the concerns expressed by our partners and mentioned in previous testimony that show how some of these controls that are talked about today can actually potentially hurt cybersecurity efforts.    So based on these concerns raised by industry and the potential impact on the Nation's cybersecurity, the Department of Homeland Security believes that the interagency together should reexamine the merits of the proposed rule. DHS plays an increasing role in cyber and in export control. And we seek a balance between getting to that right place in protecting dual-use technology, and also incorporating the best expertise globally and protecting our cyber infrastructure from the very rapid change that we see and the sophistication of the actors of which I and others have testified before you.    In my experience, before the 2-plus years I've spent at the Department, I was in private industry. I experienced product design. I experienced research. I experienced threat dissemination and sharing with both other private sector colleagues and companies, as well as our interagency partners in government, as well as around the world. That is the best thing that we can do to protect our cyber infrastructures is, as the Cybersecurity Act that you just gave us allows us to do, put threat pictures together, put indicators together, work with the smart people around the world at the speed of light, in the speed of cybersecurity that our adversaries are operating in.    We hear a lot about the Internet of things. That means that almost anything you can see and touch has a computer processor in it in the future. That means that all those things are exposed to cybersecurity vulnerabilities. And that means we need the power of speed to put that story together, to disseminate it rapidly, to share research, and design products that protect better. We need the collaboration.    In this environment, researchers and developers need to be able to work together with alacrity. They need that in the government. We need it in the private sector. And we need to be able to work together at the very speed and hopefully greater than that speed at which our adversaries are working today. A good example of how the Department works was in the Heartbleed episode in April, 2 years ago. The Department of Homeland Security received information from another government that there was a vulnerability in an open source encryption algorithm, as you well know. We were able to, through our United States Computer Emergency Response Team, disseminate that information internationally. Our CERT works, that's the Computer Emergency Response Team, our CERT works with over 300 different CERTs internationally to get that information out there.    Our cybersecurity companies and our private sector are global. Our government needs to work with other governments. The U.S. has taken a leadership role because of our ability to share and collaborate and push cybersecurity and cyber threat information out as far as we can. And companies and governments need these tools and need to be enabled to have the same alacrity with which our adversaries are enabled.    Our adversary works, as I mentioned before, without lawyers. They have plenty of money. They have no boundaries. And as was mentioned earlier, we want to bypass jurisdictional roadblocks. We thank you for that. We in cybersecurity need to bypass competitive roadblocks. We need to bypass time roadblocks. And we need to be able to collaborate, again, without interruption.    Cybersecurity is a joint effort, involving government, private sector, and academia. We welcome the chance to work together, our three agencies, our entire administration, the interagency, with all of our government partners to ensure, again, our global leadership in cybersecurity, our global ability to share this threat information. This is the main thing our adversaries cannot do. This is the product set that our companies can build for us. This is the ability for us as a government to leverage all that innovation in the private sector and push it forward.    And our position is we would like to, as an interagency together, reexamine the merits of that rule by striking a very good balance, getting it right, ensuring that we have all the benefits of the hard work that's done in export control, but also ensuring that cybersecurity doesn't stop. Anything we do to delay the collaboration between any smart mind that we can find, human or machine, enables our adversary. So thank you. And I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Dr. Schneck. The chair now recognizes Ms. McGuire for her opening statement.</t>
   </si>
   <si>
-    <t>McGuire</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McGuire. Chairman Ratcliffe, Chairman Hurd, Ranking Member Kelly, and Chairman Thompson, other distinguished members of the committee, thank you for the opportunity to testify today on behalf of Symantec Corporation. This hearing is extremely timely. And we very much appreciate your shining a spotlight on a vital issue that threatens the cybersecurity of not only the U.S. technology industry, but also that of all U.S. critical infrastructure companies and organizations that rely on cybersecurity.    The proposed U.S. cybersecurity export regulation under the Wassenaar Arrangement would severely damage our ability to innovate and develop new cybersecurity product, conduct real-time global research, and share information on vulnerabilities and exploits, as well as to test and secure global networks and new technology products.    These new regulations would restrict the free flow of information across borders and impose major new export compliance burdens on all U.S. multinational industries. While the regulation grew out of well-intended concerns over the availability of intrusion and surveillance software to repressive regimes, the end result has swept in the core functionality of cybersecurity products and technology, and puts untenable restrictions on security testing and research.    The fact is, this is not an export control on a few specific tools. It is a stringent new regulation on the entire cybersecurity industry, and our customers that would harm the economic and national security of the United States. Ultimately, it would leave every American less protected and vulnerable to cyber criminals and cyber terrorists.    The regulations would capture many common and critical security tools. One of these is penetration testing. These tests are designed to stress systems just as real attackers would and expose weaknesses that would allow an organization to improve its defenses. Yet, under the proposed regulations, financial services, health care, energy, and other multinational companies would need export licenses merely to do security testing on their overseas systems and products.    We have other concerns, but I feel compelled that I need to raise one more. As you all know, Congress and the administration have just acted to improve cyber threat information sharing. Yet, these regulations would undo much of that effort. As many of you have said today, cybersecurity knows no borders. But at Symantec, in our business practices, we also operate security operations centers around the world. Under these regulations, we would be required to apply for and wait for an export license before discussing much of our security research with a U.S. citizen who was working in one of our international centers. And the underlying rule does not even envision the accommodation of real-time machine-to-machine information sharing across borders.    As we all know, cyber threats move at light speed, not bureaucratic speed. And as Chairman Hurd said, the clock starts ticking when an indicator of compromise is identified.    To provide some perspective, Symantec's intrusion prevention systems blocked approximately 300 million exploit kits for our global customers in 2015, one of the exact technologies that would be restricted under this rule. Companies like ours rely on unfettered research and communication to innovate and develop the next generation of security technologies. At Symantec, our preliminary assessment showed we would need at least 1,000 new licenses. Today, we need less than a dozen. But the truth is that we've stopped counting, as the number is likely to go even higher. Coupled with an average lead time of 6 months to develop a license application, there is no doubt that these new burdens would cripple our ability to respond to real-time threats and cyber attacks.    Another issue is that countries that are party to the Wassenaar Arrangement and have implemented the rule have taken vastly different approaches. There are multiple interpretations of the underlying language that have led to confusion, and implementation differs significantly from country to country. In fact, today, we at Symantec are holding up a product released in one country, while our lawyers try to figure out the next steps that should be taken. And we've seen other U.S. companies who are already pulling back on international research engagements because their attorneys say there is too much risk for cross-border research flows.    The simple fact is that the rule will do little to stop the spread of malicious intrusion and surveillance tools, or curtail illicit hacking and intrusions in any way. In fact, the current rule would do just the opposite. It would handcuff security vendors and multinational companies from using all the tools available to them, while imposing no restrictions on cyber criminals. After hearing significant concerns, the Department of Commerce, to its credit, quickly withdrew the proposed rule. The conversations that have followed have been extensive and frank, but, ultimately, unsuccessful. This is not because of a lack of good faith on either side, but because of defects routed in the 2013 Wassenaar cybersecurity agreement.    For this reason, we strongly recommend that the rule be remanded back to Wassenaar to be renegotiated and more narrowly defined. Of course, we look forward to continuing to work with Congress and our U.S. Government partners, to share our technical expertise on this very important issue to our industry and critical infrastructure in the U.S. Thank you for the opportunity to testify today. And I look forward to any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Ms. McGuire. The chair now recognizes Mr. Mulholland for his opening statement.</t>
   </si>
   <si>
-    <t>Mulholland</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulholland. Chairmen Hurd and Ratcliffe, Ranking Members Kelly and Richmond, thank you for the opportunity to testify today at this important hearing. I'm Iain Mulholland, the head of the Engineering Trust and Assurance Group at VMware, and I am our senior security engineer. VMware is headquartered in Palo Alto, California, and is the fourth largest software company in the world, with 2014 revenues of over $6 billion and over 18,000 employees globally. Ironically, I may be one of the few people in the room, other than, perhaps, Ms. Ganzer, who has actually spent any time in Wassenaar, as my then-fiancee lived there in the 1990s. I spent a summer in Wassenaar reading books on computer security during my transition out of service in the British military.    I now have almost 20 years' experience in the software security engineering field. I came to the U.S. in 2002 as one of the early members of the Microsoft Trustworthy Computing Group. And in 2011, I established VMware's Product Security Group.    If implemented, the 2013 Wassenaar Arrangement could undermine our strong security posture and hinder our ability to adequately protect our customers and our products. It would introduce significant hurdles to rapidly receiving and sharing threat information, in particular, vulnerability exploit code that is critical to the swift development of security patches that protect software users, something that Chairman Hurd alluded to.    This introduction of a requirement to apply for and obtain licenses during critical, time-sensitive responses to security vulnerabilities, which may already be under active exploitation, creates an asymmetry that is to an attackers' advantage, since, unlike the defender, the attacker has few such constraints.    In my written testimony, I included three different examples that speak to the core challenges that implementing the 2013 rules would present not only VMware, but as some testimony has already alluded to, other U.S. technology companies. In the interest of time, I would like to share one of them with you. In the last 12 months, VMware has collaborated with several small security research organizations in Europe to remediate critical security vulnerabilities that they identified in our products. These vulnerabilities, if left unpatched, could have allowed a malicious attacker to take complete control over critical infrastructure. During the course of our investigations, researchers often provide VMware with sample exploit code that demonstrates the flaw to our security response team.    Exploit code is often key in accelerating the speed with which our engineers are able to understand the flaw and develop a patch to protect our customers. If a picture paints 1,000 words, then in the field of software security, the exploit is our picture. In one example, the security researcher was in Poland, his parent company, in the Netherlands, the coordinating VMware incident response team in the U.S. and Canada, and the team responsible for developing the security patch, in India. In addition, several of our U.S.-based employees were non-U.S. persons. In this example, VMware and the researcher would have required multiple licenses, one from Poland to the Netherlands, from Poland to the U.S., from the Netherlands to the U.S., from the U.S. to Canada, and several within the U.S. just to share information across cubical walls with non-U.S. persons based in the United States.    Security vulnerability reports typically come through our industry standard security at VMware.com email address, using a security research protocol that has been in use in our industry for over 15 years. In 2015 alone, over half the security vulnerabilities reported to VMware came from individuals or organizations located in Wassenaar countries. In most cases, an export license would have been required for the researcher to report the security issue to us. A security researcher may not even have known who or where they were exporting an export to, since security at VMware.com is staffed on a rotational basis by a global team, half of whom are outside of the U.S. or non-U.S. persons.    It is improbable that these small research companies or individuals will take on the administrative and financial burden of applying for potentially multiple export licenses simply to report a security vulnerability. And as a result, this important source of information will dry up, or much worse, end up in the underground vulnerability market, leaving vulnerabilities unreported, unpatched, and under active exploitation.    Moving forward, we recommend the BIS and the Department of Commerce continue to keep all options on the table. We applaud them for reconsidering their original draft, and hosting a series of public forums with a range of stakeholders to try and find a reasonable solution which we are pleased to participate in.    Ultimately, however, the U.S. should return to Wassenaar and renegotiate the 2013 arrangement. We live in a global digital ecosystem that is not constrained by borders. We receive information about threats that affect the security of our products and our customers from all over the world. Even if the U.S. fixes its domestic policy, it will not enable us to continue to receive and share critical and timely information that affects the security of our customers on products from outside our borders. We must have the tools and resources on hand to act immediately and continue to provide world class secure software and services and ensure customer safety. Unfortunately, the 2013 Wassenaar agreement would undermine our ability to do so.    I applaud the leadership of the committee for holding this hearing today. Thank you for the opportunity to testify. And I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Mulholland. Ms. Goodwin, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Goodwin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Goodwin. Chairman Ratcliffe, Chairman Hurd, Ranking Member Richmond, Ranking Member Kelly, Chairman McCaul, Chairman Thompson, members of the subcommittees, my name is Cristin Flynn Goodwin. And I'm assistant general counsel for Cybersecurity at Microsoft. I advise a wide range of teams on cybersecurity legal issues, and I manage Microsoft's government Security Program working with governments around the world. Thank you for convening today's hearing and your bipartisan leadership to support our Nation's cybersecurity. Microsoft has a deep commitment to cybersecurity. And I'm happy to be here today to discuss our perspective of the Wassenaar Arrangement's controls on intrusion software agreed to at the December 2013 Plenary and the proposed U.S. implementation.    As detailed in my written testimony, Microsoft believes the Wassenaar Arrangement's approach to controlling intrusion software and the broad export licensing requirements proposed in the U.S. would undermine security research, incident response, cyber collaboration, and product innovation. We agree with your assessment, assessed in a bipartisan letter to Ambassador Rice last month, that without a significant overhaul, these broad licensing requirements could seriously hinder national security.    The intent of the drafters of these provisions was to prevent the export of surveillance software to criminal organizations or repressive regimes, which is admirable and important. Unfortunately, due to the very broad definition of intrusion software, extensive range of security technologies will now be subject to broad and burdensome licensing requirements in the U.S. If left unchanged, the proposed definition will have a chilling effect on the development of products and services and on the discovery of existing vulnerabilities. It will also significantly impact security incident response, and create new barriers for those seeking to secure themselves against increasingly persistent and sophisticated cyber threats. To demonstrate the impact, consider these three very common cybersecurity scenarios.    First, a large critical infrastructure provider based in Germany is concerned that there is an attacker present on its corporate network and stealing sensitive information. The company calls in an American security company to come to Germany to help investigate whether the attacker is still present, and to use tools to find out what the attacker might be trying to steal or access without tipping them off.    Second, a cybersecurity researcher with a small company in the United States finds a new piece of malware that hides itself on a user's machine, and then automatically deletes log files that indicate where an attacker is hiding on a machine. The researcher wants to share his analysis of the malware and collaborate with a software vendor in the U.S.    Third, an American software company is developing a new product for commercial sale. Its internal security team, with members in the U.S., Australia, and Japan, wants to develop a tool that will help them test the product's security measures before it is sold.    What do these scenarios have in common? Security response, collaboration, and product innovation stops until new export licenses can be processed, which can take weeks or even months. It also means that the attacker will be present for weeks on the German network. The malware identified by the researcher will continue affecting machines. And the software company will be delayed in its effort to develop a new product.    Clearly, none of this is in the best interest of American cybersecurity. The United States must lead the effort to re-set this flawed approach internationally. Security experts should not have to pick up the phone in the middle of the night to call in an export control adviser to determine whether they can share certain technical information about an ongoing attack or as part of their day-to-day work, wait to collaborate with internal or external colleagues on security priorities. In today's global security environment, the ability to collaborate with peers and colleagues should be the default, not the exception.    As both of your subcommittees know well, developing cybersecurity policy requires a deep understanding of the problem, broad input from experts, engagement with the executive branch and Congress, and a transparent process.    Regrettably, to the detriment of cybersecurity, the Wassenaar Arrangement definition of intrusion software does not reflect this type of inclusive process. It must be renegotiated.    In conclusion, Microsoft is a committed participant in the public-private partnership, and strongly encourages Congress and the executive branch to take the necessary steps internationally, and with our Wassenaar partners, to undo the overly broad and complicated export control requirements. Concurrently, the administration should suspend any related rulemaking efforts until a new agreement can be reached, making use of a robust, consultative process.</t>
   </si>
   <si>
@@ -193,18 +154,12 @@
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Ms. Goodwin. The chair now recognizes the very patient Mr. Garfield for his opening statement.</t>
   </si>
   <si>
-    <t>Garfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garfield. Chairman Ratcliffe, Chairman Hurd, Ranking Member Kelly, Ranking Member Richmond, members of the committee, on behalf of 64 of the most dynamic and innovative companies in the world, some of whom are also at this table, we thank you for hosting this hearing, inviting us to testify, and for your bipartisan approach on this issue, including the letter that you sent at the end of last year. I've listened carefully to the testimony of the other folks on this panel, and rather than repeating what they've already said so eloquently, I'll try to focus in on some of the questions that were implicit in your testimony, including why is this important? What should we do about Wassenaar? Can we simply revise the rules? And what are our recommendations or next step?    As to the first, why is this important, our company, the companies that are members of ITI, are really the technology platform for the entire world. There is no sector or industry that's exempted from the implications of the Wassenaar Arrangement. Increasingly, cross-border data flows are the steam of the economic engine worldwide as well as innovation, the innovation ecosystem. The Wassenaar Arrangement impacts all businesses, whether they are technology-based or otherwise.    Can the defects in the rules be cured? Our recommendation and answer is no. In spite of the best intentions of the drafters, the fundamental flaws in the proposed rules emanate from the arrangement itself. And I'll point to three areas that are--that speak to that.    One, the presumptions, the problematic presumptions, around drawing lines between intrusion software, as well as drawing lines around IP network surveillance systems are found in the rules themselves, but are very much, in fact, grounded in the Wassenaar Arrangement as developed in 2013.    Secondly, the question that Chairman Hurd raised and Ranking Member Kelly alluded to around whether you can actually deal with the fast-paced world of cybersecurity in cross-border data flows through the lumbering world that is limited by borders in export controls, the answer is no.    Third, what is really needed here is a multinational approach, as a number of the members on this panel and the committee have noted, given the nature of our economy today, its heavy reliance on cross-border data flows, as well as the nature of cybersecurity that's been advanced by the work of this Congress through the Cybersecurity Act of 2015, as well as the Department of Commerce through NIST.    Increasingly, the way to deal with cybersecurity issues is on a multinational basis through the sharing of cyber threat information. The Wassenaar Arrangement stands in the way of that.    Relatedly, there are a number of nations that are a critical part of advancing cybersecurity that are not a part of the Wassenaar Arrangement, including Brazil, India, and China. So what do we do? Our recommendation is consistent with the private sector witnesses on this panel. Given that the root of the challenge is grounded in the 2013 developments in Wassenaar and the Wassenaar Arrangement, our recommendation is to go back to Wassenaar to cure those fatal defects. We say that not out of taking any pride in suggesting that the United States go back and renegotiate this agreement, but from our perspective, it's truly an opportunity to exercise leadership.    There are a number of countries that are struggling with dealing with these same issues, and the United States has an opportunity to provide global leadership in dealing with what are truly complex issues.    Secondly, it's important that whatever is done next is informed by experts, including many of those that are in this room, and some of who are not.    I thank the committee, again, for this opportunity to testify. And I look forward to your questions and to working with you towards a solution. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Garfield.    The chair now recognizes himself for 5 minutes of questions.    And I want to start, Ms. Ganzer, with you, because you were the only witness that didn't have a statement, and there was some intimation about--about your role, perhaps, in negotiating the Wassenaar Arrangement of 2013 and the inclusion of intrusion software. And so I want to take just a minute of my time to give you an opportunity to address whether or not that's accurate, or what your role was, if any?</t>
   </si>
   <si>
-    <t>Ganzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ganzer. Thank you, Mr. Chairman. I appreciate the opportunity to be here today. In my role as the Director of Conventional Arms Threat Reduction, I am the head of delegation for the Wassenaar Arrangement writ large for the United States. So I was in the chair for the United States when the control was adopted and agreed to on behalf of the United States. I was not responsible, specifically, in the room when it was negotiated. The administration has an integrated team of members from the interagency generally, including the Commerce and Defense Departments; Homeland Security may be there; Energy may be there; depending on what issue is being negotiated. But the administration and an integrated team negotiated these controls. And, so, there would have been an integrated team that agreed to the specifics.    I would note that the control was intended to capture purpose-built suites of operated control--operator controlled software that extract--are designed to extract data from a system, modify a system or its data, or modify the system to execute a malicious operator's instructions without the systems owner's knowledge. That was what we intended to control, and that is what we thought we controlled. So the reaction from our industry colleagues here was quite a prize to us. And we continue to work the issue within the administration to--to do no harm, as some of the members mentioned in their statements. Thank you.</t>
   </si>
   <si>
@@ -262,9 +217,6 @@
     <t xml:space="preserve">    Mr. Ratcliffe. At this time, the chair recognizes my friend and colleague from Texas, Congressman Farenthold.</t>
   </si>
   <si>
-    <t>Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much, Mr. Chairman.    And I wanted to start out with Ms. Goodwin from Microsoft. We've talked a little bit about, today, about how some of this software is available from countries that aren't a party to our agreement. I know Microsoft is active in fighting software piracy as well. Even in the domestic, international stuff that we're seeking to regulate, software is pretty portable and pretty easy to pirate. Do you think there's a practical way we can actually put export control on software against, obviously, a hacker who would be typically unethical to begin with, or a state actor that's hostile to us? I imagine y'all struggle pretty hard from keeping Microsoft Word from getting pirated?</t>
   </si>
   <si>
@@ -316,9 +268,6 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    And it's fascinating. Every time I come to a cyber issue, it's just incredibly fascinating. I remember--I'm from California, so, of course, we think that we have encryption and cyber as far cutting edge as possible.    I remember, Mr. Chairman, 20 years ago, when I sat on the Armed Services Committee, we had instituted a military--a bloc on sending encryption out. And at the time, it was Adam Smith and myself were the only ones who were going, wait a minute, if we do that, we're going to lose encryption ability, or technology lead in California or the United States. And, in fact, we struggled, as Symantec and others will tell you, prior to the company, we struggled quite a bit until we were able to undo some of those restrictions.    So you were surprised, even though you had--you thought you had industry covered through the system. So my question to you would be, have you gone back and rethought different levels you might have interacted at the time with respect to that so we don't have the same type of surprise again? Because these issues of export controls and what is used and what is the standard and who's setting the standard and who's got the keys, it's going to come up over and over and over again.    So have you--have any of you gone back and rethought it, say, there might--where you could have interjected industry earlier, or was industry just sort of like, yeah, yeah, yeah? Sometimes that happens here in the Congress. You know, someone comes up to you, yeah, yeah, yeah, sign me on. Then you go back, and you think about it, and you have to pick up the phone and say, wait a minute, maybe what I agreed to isn't exactly what I was thinking at the time.</t>
   </si>
   <si>
@@ -352,9 +301,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    Good afternoon, ladies and gentlemen. Thank you for being here.    Ms. Ganzer, can you clarify something for me, because I was running in and out to other--other hearings.    What specifically was your role in this negotiation? Are you--were you the person that made the final decision in the Wassenaar Agreement?</t>
   </si>
   <si>
@@ -439,9 +385,6 @@
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman.    The chair now recognizes the gentleman from Virginia, Mr. Connolly.</t>
   </si>
   <si>
-    <t>Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. Welcome to a very large panel.    Mr. Wolf, I want to go back to the beginning to understand the process. So the Wassenaar Arrangement involving 41 countries, a lot of those members come to us saying, will you help? We think we need some kind of expert control over cybersecurity countermeasures. Is that correct?</t>
   </si>
   <si>
@@ -532,9 +475,6 @@
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman from Virginia for his questions and his comments.    The chair now recognizes the gentleman from North Carolina, Mr. Walker.</t>
   </si>
   <si>
-    <t>Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    I appreciate the panel being out today for an extended witness time, but we do appreciate all of you being here, as well as staff.    Recently completing my first year in the House, it has opened my eyes to the problems that we have specifically in the cybersecurity arena. Also serving on the Department--or the Committee on Homeland Security, as well as the co-chair of the cloud caucus, has really sent me studying this issue and should cause us all great concern.    Congress recently passed the cybersecurity legislation designed to facilitate the efficient and effective sharing of cyber threat data and indicators between the private and the public sectors.    Ms. Schneck, the DHS has a big role to play in that process. The question for you is how would the proposed Bureau of Industry and Security rule, as drafted, impact that sharing?</t>
   </si>
   <si>
@@ -616,9 +556,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. I appreciate y'all coming. I am just going to make one comment, and then I will yield to Congressman Hurd, if that's okay.    First of all, when I looked at the participating countries, I don't see a lot of Asian competitors there. And I know what I would think if I was in private business, y'all. So you were not talking about the obvious. But I had a lot of competition coming from my--from Asia and India, and we can't be playing a different game than them, or we will lose.    So I understand the need to protect the homeland, but there's something obviously wrong with this list if you're going to--if you were trying to influence me to join up, and I saw that list, after my technology had already been stolen a half dozen times, it would be a tough, tough, sell.    Number two, with my facilities around the world, which we have, which I had, customers--you know, customers and facilities all on these lists, the foreign corrupt practice laws and everything, I don't even know how to do this. I wouldn't know how to implement it. It just feels, like, it hits me like a freight train here.    And so--and, look, I spent a lot of time doing this. So, you know, there's got to be--you would have to put it in terms. I spent, you know, yesterday and today trying to think about these things and think to myself and my own business model, how would I do this? And I never really got there. How can I compete, take care of my customers, take care of my competitors, and my suppliers across all these different borders, and not break the law and keep my country safe? So if y'all are going to do that to sitting CEOs, I recommend that you simplify it so we can understand how we get to do all those things at the same time, because I spent a whole life doing it, and I ain't getting there just yet.    I yield back to Mr. Hurd.</t>
   </si>
   <si>
@@ -746,9 +683,6 @@
   </si>
   <si>
     <t>400199</t>
-  </si>
-  <si>
-    <t>Sheila Jackson Lee</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you so very much. We have a vote on the floor of the House, but I indicated that this was so important and provocative, I'm going to try to be as quickly as I can. And be as successful as the on-site kick was last evening.    But let me try to get to the government. Mr. Wolf and our two distinguished State Department representatives, you have had a series of questions by members. Can I get a yes-or-no answer that you are going back to the drawing board. We know that there is an agreement that's going to be coming forward, suggestions and ideas, to give us an opportunity to go back to this issue again, Ms. Ganzer. But am I sensing that you understand that there needs to be a regulatory revisit on these issues?    Mr. Wolf, yes or no, please?</t>
@@ -1201,11 +1135,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1225,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1253,11 +1183,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1277,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1303,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1329,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1355,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1381,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1407,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1433,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1461,11 +1375,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1485,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1511,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1537,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1565,11 +1471,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1589,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1617,11 +1519,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1641,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1669,11 +1567,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1693,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1721,11 +1615,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1745,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1773,11 +1663,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1797,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1825,11 +1711,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1849,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1877,11 +1759,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1903,11 +1783,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1927,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1955,11 +1831,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>59</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1979,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2007,11 +1879,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>62</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2031,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2059,11 +1927,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2083,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2111,11 +1975,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2135,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2163,11 +2023,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2187,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2215,11 +2071,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2239,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2267,11 +2119,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2293,11 +2143,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>59</v>
-      </c>
-      <c r="H44" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2319,11 +2167,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2345,11 +2191,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2371,11 +2215,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2397,11 +2239,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2423,11 +2263,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2447,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2473,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2501,11 +2335,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>82</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2527,11 +2359,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2553,11 +2383,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>82</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2579,11 +2407,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2605,11 +2431,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>82</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2631,11 +2455,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>62</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2657,11 +2479,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2683,11 +2503,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>43</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2709,11 +2527,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2735,11 +2551,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2761,11 +2575,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2787,11 +2599,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>62</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2813,11 +2623,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2839,11 +2647,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>62</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2865,11 +2671,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2889,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2915,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>100</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2943,11 +2743,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>43</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2967,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" t="s">
-        <v>100</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2995,11 +2791,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>43</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3019,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" t="s">
-        <v>100</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3047,11 +2839,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3071,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3099,11 +2887,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3123,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3149,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3175,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3203,11 +2983,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>62</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3227,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
-      </c>
-      <c r="G80" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3255,11 +3031,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3279,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>111</v>
-      </c>
-      <c r="G82" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3307,11 +3079,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>43</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3331,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
-      </c>
-      <c r="G84" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3359,11 +3127,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>46</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3383,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G86" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3411,11 +3175,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>46</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3435,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3463,11 +3223,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>46</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3487,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>111</v>
-      </c>
-      <c r="G90" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3515,11 +3271,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>43</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3539,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
-      </c>
-      <c r="G92" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3567,11 +3319,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>43</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3591,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>111</v>
-      </c>
-      <c r="G94" t="s">
-        <v>112</v>
-      </c>
-      <c r="H94" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3619,11 +3367,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>62</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3643,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
-      </c>
-      <c r="G96" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3671,11 +3415,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>40</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3695,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3723,11 +3463,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>40</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3747,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3775,11 +3511,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>43</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3799,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>111</v>
-      </c>
-      <c r="G102" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3827,11 +3559,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>43</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3851,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" t="s">
-        <v>112</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3877,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3905,11 +3631,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>141</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3931,11 +3655,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>43</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3957,11 +3679,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>141</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3983,11 +3703,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>43</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4009,11 +3727,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>141</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4035,11 +3751,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4061,11 +3775,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>141</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4087,11 +3799,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4113,11 +3823,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>141</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4139,11 +3847,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4165,11 +3871,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>141</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4191,11 +3895,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>43</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4217,11 +3919,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>141</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4243,11 +3943,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>43</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4269,11 +3967,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>141</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4295,11 +3991,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>43</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4321,11 +4015,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>141</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4347,11 +4039,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>43</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4373,11 +4063,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>141</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4399,11 +4087,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>49</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4425,11 +4111,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>141</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4451,11 +4135,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>49</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4477,11 +4159,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>141</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4503,11 +4183,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>52</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4529,11 +4207,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>141</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4553,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4581,11 +4255,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>52</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4607,11 +4279,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>141</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4633,11 +4303,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>52</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4659,11 +4327,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>141</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4683,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4711,11 +4375,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>172</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4737,11 +4399,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>46</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4763,11 +4423,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>172</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4789,11 +4447,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>46</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4815,11 +4471,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>172</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4841,11 +4495,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>46</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4867,11 +4519,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>172</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4893,11 +4543,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>46</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4919,11 +4567,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>172</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4945,11 +4591,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>43</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4971,11 +4615,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>172</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4997,11 +4639,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>55</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5023,11 +4663,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>172</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5047,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5073,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5099,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5125,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5153,11 +4783,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>40</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5177,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5205,11 +4831,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>40</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5229,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5257,11 +4879,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>40</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5281,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5309,11 +4927,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>40</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5333,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5359,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5385,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>199</v>
-      </c>
-      <c r="G163" t="s">
-        <v>200</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5413,11 +5023,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5439,11 +5047,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>43</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5465,11 +5071,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5491,11 +5095,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>43</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5517,11 +5119,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5543,11 +5143,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>59</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5569,11 +5167,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5595,11 +5191,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5621,11 +5215,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>43</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5647,11 +5239,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5673,11 +5263,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>43</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5699,11 +5287,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5725,11 +5311,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>43</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5751,11 +5335,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5777,11 +5359,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>43</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5803,11 +5383,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5829,11 +5407,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>40</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5855,11 +5431,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5881,11 +5455,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>40</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5907,11 +5479,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5933,11 +5503,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>40</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5959,11 +5527,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5985,11 +5551,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>40</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6011,11 +5575,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6037,11 +5599,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>40</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6063,11 +5623,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6089,11 +5647,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>40</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6115,11 +5671,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6141,11 +5695,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>62</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6167,11 +5719,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6193,11 +5743,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>62</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6219,11 +5767,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6245,11 +5791,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>62</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6271,11 +5815,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6297,11 +5839,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>62</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6323,11 +5863,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6349,11 +5887,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>43</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6375,11 +5911,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6401,11 +5935,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>43</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6427,11 +5959,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6451,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6477,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>243</v>
-      </c>
-      <c r="G205" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6505,11 +6031,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>43</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6529,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>243</v>
-      </c>
-      <c r="G207" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6557,11 +6079,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>62</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6581,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>243</v>
-      </c>
-      <c r="G209" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6609,11 +6127,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>40</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6633,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>243</v>
-      </c>
-      <c r="G211" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6661,11 +6175,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>59</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6685,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>243</v>
-      </c>
-      <c r="G213" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6713,11 +6223,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>55</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6737,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>243</v>
-      </c>
-      <c r="G215" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6765,11 +6271,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>52</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6791,11 +6295,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>52</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6815,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>243</v>
-      </c>
-      <c r="G218" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6843,11 +6343,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>49</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6867,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>243</v>
-      </c>
-      <c r="G220" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6895,11 +6391,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>46</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6919,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>243</v>
-      </c>
-      <c r="G222" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6945,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6971,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>243</v>
-      </c>
-      <c r="G224" t="s">
-        <v>244</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6997,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
-      </c>
-      <c r="G225" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23401.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23401.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. The Subcommittee on Information Technology of the Committee on Oversight and Government Reform and the Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies of the Committee on Homeland Security will come to order. Without objection, the chair is authorized to declare a recess at any time. I would like to start off by recognizing my friend and the chairman of the Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies, and fellow Texan, the Honorable Ratcliffe, John Ratcliffe. Over to you, sir.</t>
   </si>
   <si>
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman for yielding. The purpose of this hearing is to address the impact of the Wassenaar Arrangement, which was recently amended to propose export controls for cybersecurity products. I now recognize myself for an opening statement.    The House Homeland Security Committee's Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies and the House Oversight and Government Reform's Subcommittee on Information Technology meet today to hear from key industry and government stakeholders about the impact of the Wassenaar Arrangement, that it will have on American people, on American businesses, and on the cybersecurity industry.    I first want to start off by thanking my friend, Mr. Will Hurd, the gentleman from Texas, for co-chairing this hearing. Today, we are doing what Americans would like to see more of in Congress. Two committees that don't often work together are able to, and happy to come together to tackle an issue that's extremely important and relevant to national security and to the security of individuals' personal information. Congressman Hurd and I share the belief that one of our core duties here in Congress is to bypass the jurisdictional roadblocks, and make real progress towards keeping our citizens safe.    To the issue at hand, we know that private industry in America is excellent at responding to consumer demands. Many companies, including some of those here today, pride themselves on guaranteeing the security of their customers' personal information. Others represented here exist solely to help in securing that information. They also secure vital sectors of society such as critical infrastructure and the financial sector. Their success hinges, in part, on their ability to guarantee their own security. Today, I hope to hear from our witnesses on how the Wassenaar Arrangement in its implementation would affect these objectives.    The Wassenaar Arrangement was established 20 years ago to apply to conventional arms and dual-use goods and technology. Changes made in 2013 sought to extend export controls to cybersecurity intrusion and surveillance software and technology.    These changes were motivated by a desire to prevent authoritative regimes from repressing their people. This intent is noble. If the administration's implementation effort resulted in unified dissent from the technology and cybersecurity industries, from academics and researchers, the energy and financial sectors also voiced deep concerns. And they were echoed by civil society groups who said that the proposal could make communicating about security vulnerabilities almost impossible in certain cases. The Federal Government engages in countless ways with the American people and our international partners. When proposing actions, the government should, at a minimum, not do harm to its own people. I'm interested to hear from our government witnesses how they believe this arrangement will successfully deter the accumulation of digital weapons, which aren't constructed in factories, which don't need physical space for storage, and which don't depend on traceable means of transport.    I hope to better understand how they believe this export control framework can be effectively applied to intrusion software. I agree that we should strive to limit dangerous technologies from falling into the hands of bad actors. But national security and Americans' personal security can't be sacrificed in the process. There are many ways the United States strives to combat human rights violators. And I hope to hear today why this route wasn't chosen over other options. As we can see by the variety and the size of our witness panel, the Wassenaar Arrangement has broad implications. Recent reports and the witness testimony today demonstrate that we are far from a consensus on this issue. The administration's top three stated priorities include, and I quote, ``protecting the country's critical infrastructure from cyber threats, improving our ability to identify and report cyber incidents, and engaging with international partners to promote Internet freedom, and building support for an open, interoperable, secure, and reliable cyberspace.''    I assume that our government witnesses are well-versed in these goals and their prioritization. Yet, in reading the comments to the proposed rule and general thoughts on the cybersecurity section of the Wassenaar Arrangement, one sees a probable contradiction in the first two goals. Additionally, I think it's unlikely that this arrangement achieves the open and interoperable cyberspace that is in the public's interest. If we are to expect the cybersecurity provisions of this arrangement to be workable, we need to make sure that our stated intentions and actions are not contradictory. If we can't do that, I question why as a country we are agreeing to this updated arrangement.    Just last month, Congress passed legislation to encourage the sharing of cyber threat information. Both the private sector and the Government stand to benefit from the increased flow of valuable cyber-threat information. Today, we need to hear whether the Wassenaar Arrangement would have a counterproductive impact on such sharing, and whether it would undermine the law that the President just signed. As a Nation, we advocate for human rights, and we assist those harmed by authoritarian regimes. However, we must, first and foremost, safeguard the security of our Nation and our citizens.    I look forward to hearing from the witnesses about the best path forward and how we can come together to best protect the American people. And I yield back.</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>412432</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Chairman Hurd and Chairman Ratcliffe, also Ranking Member Kelly, for convening this joint hearing on U.S. rulemaking regarding cybersecurity technology issues in the Wassenaar Arrangement. I also want to thank our panel of witnesses today, both the government and industry representatives.    The Wassenaar Arrangement consists of America's efforts, in collaboration with 40 of our trading partners, to put into place export controls for conventional arms and dual-use goods and technologies. As we know, dual-use goods and commodities, processes are technologies used primarily for civilian purposes, which can also be used to develop or enhance the capabilities of military equipment or initiatives. We find ourselves in rapidly changing times. And dual-use goods and technologies now encompass cybersecurity technologies, which are vital in protecting private, commercial, and governmental data, and protecting the operation of our information networks, both public and private. The 41 nations participating in the Wassenaar Arrangement agreed to include cybersecurity issues. And the United States has led the way.    The Department of Homeland Security's Cybersecurity and Communications Office, within the National Protection and Programs Directorate, is the storehouse of a great deal of our Nation's civilian cybersecurity expertise. And I'm glad to see Dr. Schneck as one of our witnesses today, and look forward, especially, to her perspective.    I found it helpful to frame the cybersecurity issues contained in the Wassenaar Arrangement as a series of questions. Does the proposed rule fulfill its intended goal? Does the proposed rule have any negative unintended side effects? Will modification of the proposed rule address concerns adequately?    And, finally, should the Wassenaar provision be renegotiated, or an alternative be found? If the critics of the wording of the current proposed rulemaking are right, then I'm sure the answers will be no, yes, no, yes. According to a large number of professionals, the expert restrictions for the defined cybersecurity products and technologies in the rule may certainly reduce the likelihood of repressive governments obtaining surveillance technology through legal sources, but the criminal underground would not be subject to such restrictions. And such repressive regimes might switch to those suppliers.    But let us not speculate. While my subcommittee does not appear to have any immediate legislative or oversight jurisdiction on this matter, testimony today from industry and government agencies involved, would help us to learn about the impacts of the proposed rule as drafted and how it will affect or impede not only research on the specifics of cybersecurity, but possible effects on the larger global cybersecurity community.    Mr. Chairman, at this time, I would like to yield 1-1/2 minutes to Mr. Langevin, who has been a leader and an expert in our caucus on this issue.</t>
   </si>
   <si>
@@ -76,6 +94,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. I want to thank the ranking member, Ranking Member Richmond, for yielding the time. And I want to thank both chairmen and ranking members of the committee for holding this hearing. I've been closely following the intrusion software additions since BIS proposed the original rule last May. In July, several of my colleagues joined me in voicing our concerns with that regulation as part of the public comment period. And last month, 125 members joined Chairman McCaul and me in a bipartisan effort in highlighting some of those thoughts in a letter to the President's National Security Advisor.    Throughout this period, I've been thoroughly impressed by Bureau of Industry and Security's efforts to be as open as possible during the rulemaking process. And I commend you, Assistant Secretary Wolf, and your staff, for your willingness to listen to constructive feedback. I thank you for your work in that respect. I think all of us here today believe that intrusion software can be dangerous in the wrong hands. But the original proposed rule had many unintended consequences that must be addressed. I hope we will explore those barriers during this hearing, which could be detrimental to both our economic competitiveness and our national security, and that we will also come out with a clear understanding of the way forward and how to better incorporate stakeholder feedback from the outset in future rulemaking.    With that, I would like to, again, thank Chairmen Ratcliffe and Hurd and Ranking Members Richmond and Kelly for addressing this very important topic. And I'll submit my full statement for the record. And I would yield back the balance of my time.</t>
   </si>
   <si>
@@ -88,12 +112,21 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McCaul. I thank the gentlemen from Texas, both Mr. Ratcliffe and Mr. Hurd, for having this hearing today on a very important issue. It's consequential. Strengthening our Nation's cybersecurity is of the upmost importance right now, and will determine our Nation's position as a world leader in the future. The playing field for international conflict is constantly evolving. Cyber attacks can come from anywhere at any time, and without any prior notifications.    As chairman of the Homeland Security Committee, keeping Americans safe is my primary concern. And that is no simple task in such a dynamic environment. Unfortunately, the amendment to the Wassenaar Arrangement would depreciate the research, development, and deployment of important tools that we all use every day to secure against cyber attacks.    The United States has a duty to be a world leader. The establishment of a multi-national arrangement to restrict the trade of conventional arms and dual-use goods and technologies has only been possible through strong American leadership. To continue fulfilling this imperative role, the United States must ensure that such agreements support technically and practically intelligent policies on cybersecurity.    If the matter at hand was simply a question of efficacy, we wouldn't be here today. If the only concern was that the Wassenaar Arrangement might have room for improvement, this conversation would be very different. But what has been violated here is the fundamental adage of do no harm. The State Department agreed to an arrangement that would restrict a group of information security tools and products. This agreement and the proposed implementation could hobble the entire cybersecurity ecosystem, as well as cross-border data flows, and global collaboration that support it. Weakening our cyber researchers and innovative service providers is bad enough. But as we have seen again and again, any weakness in our cyber posture will percolate to other industries and harm individual Americans.    Furthermore, under the arrangement, participating States already exchange specific information on a regular basis about global transfers of certain goods and technologies. Part of the Wassenaar Arrangement is looking at that information to find dubious acquisition trends. I don't see any limitation on the ability of the Wassenaar Arrangement to pursue the stated goals of increased transparency without adding burdensome and counterproductive licensing requirements.    I hope that the witnesses are able to speak today about why the addition of intrusion software language to the arrangement was preferred as the best means of achieving American goals, instead of other options, such as through sanctions, which would address bad actors more directly without unintended consequences.    Lastly, the Homeland Security Committee worked hard in putting together and shaping information, sharing legislation which was signed into law in December. That legislation facilitates a sharing of cyber information between the Federal Government and the private sector to assist security experts and others in rapidly identifying and resolving vulnerabilities that threaten the security of our networks.    We must not backtrack on this progress. It is a priority of the Homeland Security Committee to investigate whether the domestic execution of the relevant cybersecurity section of the Wassenaar Arrangement would obstruct positive collaboration on cybersecurity that protects American information and information systems.    I hope the backlash received and the response here in the Congress will prevent the State Department from attempting to take momentous negotiations upon themselves without consultation from the stakeholders in the future. The administration must not ignore the serious, broad implication of the results. What we won't stand for is a de facto regulation of a thriving sector and cornerstone of American industry, an industry that provides the tools that we all, including governments, use to secure ourselves. I expect this hearing today will send an important message that the intrusion software language in the Wassenaar Arrangement is simply unworkable. We, in the Congress, expect that the administration will work to correct the serious issues in this arrangement moving forward. Again, I want to thank the chair and ranking member for holding this hearing. And I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank the chairman. The chair now recognizes the ranking member of the Oversight and Government Reform Subcommittee on Information Technology, the gentlelady from Illinois, Ms. Kelly.</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chairman. Welcome to the witnesses participating in today's hearing on export controls for certain cybersecurity tools. The export controls for intrusion and surveillance technologies agreed to at the Wassenaar Arrangement were intended to help prevent repressive regimes from obtaining and using intrusive technology against their own citizens. These are important human rights objectives. It is also critically important that U.S. cybersecurity policies advance our overall efforts to protect information and systems from cyber attacks and data breaches.    Today's hearing is recognition of the fact that the Federal Government and private sector must work together effectively to thwart cybercrime. The Bureau of Industry and Security's proposed rule to implement the Wassenaar Arrangement's export controls on cybersecurity intrusion, and surveillance items could seriously hinder the cybersecurity industry and our national security. The language in the proposed rule would interfere with the ability of businesses and of the Federal Government to acquire and utilize cybersecurity tools that are critical to the security of information systems and data, and frustrate the real-time information sharing of vulnerability, which is relied upon to prevent or to stop a cyber attack.    Going forward, BIS and its interagency partners should reconsider their policy approach to this rulemaking, so that the export controls do not negatively affect our Nation's ability to defend against cyber threat and the policy conforms with the broader U.S. cybersecurity strategy and national security.    The Information Technology Subcommittee has held multiple hearings examining the nature of cyber threats and how to enhance the security of information and information networks. We have learned that no company or industry is immune from cyber attacks, and that cyber attackers are highly sophisticated, and constantly evolving their tactics.    We are all aware of the major breaches that American companies, contractors, and government agencies have sustained in recent years. Given this persistent threat to information systems, it is critically important that the U.S. policies and regulations are designed to enhance the tools and capabilities that ensure the security of critical information targeted by cyber attackers.    Last month, the Democratic members of this subcommittee, along with 120 other Members of Congress, signed onto a bipartisan letter to National Security Advisor Susan Rice, requesting the WhiteHouse's collaboration and advice in the development of export control policies for cybersecurity tools. In that letter, we expressed our concerns that the proposed rulemaking pertaining to export controls of intrusion software and vulnerability research could reduce the ability of private businesses and the Federal Government to defend against cyber threats and impair national security efforts.    I would like to commend BIS for anticipating the need to assess the impact of the export controls on the cybersecurity industry and requesting public comment on the effects of this proposed rule. The Bureau is currently reviewing the 264 public comments it received.    I look forward to hearing from today's witnesses on the impact of this proposed rule and discussing a path forward that achieves the human rights objectives of the export controls without negatively affecting innovation and research on cybersecurity tools and vulnerability. Thank you, Mr. Chairman. And I look forward to the witnesses' testimony.</t>
   </si>
   <si>
@@ -103,6 +136,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much. Thank you, Chairman Hurd, Ranking Member Kelly, Chairman Ratcliffe, and Ranking Member Richmond, for your leadership in calling this joint subcommittee hearing today. I particularly want to thank the distinguished panel of witnesses before us today. You all play an important role in America's vital trade and business life. And I'm grateful you took the time to come help us understand a very complicated issue.    The concept of cyber and information security is fundamental to our economy across all sectors, not only for business computers and networks, but also because the issue crosses the lanes of private, personal information, and policies that governance consideration. Cyber and information security are also issues that involve the ingenuity and initiative that makes American entrepreneurs and computer software scientists leaders in the world market.    The Wassenaar Arrangement for the export control of dual-use cybersecurity products is not only technically complex, but also involves moral and ethical considerations that must be taken into account.    The United States economy is the largest in the world and the most creative, innovative, and productive. The strength of our engineers, scientists, and industrial leaders and across all sectors of American industry is unmatched. While the American worker is recognized as the most productive worker in the world, the electronic world dominates our business, information, security processes. And we depend most heavily on effective functioning of machine and computer system controls to achieve our high level of productivity. We cannot maintain these high levels of productivity without comprehensive and massive security efforts to protect not only machines and computers, but the electronic networks that we all depend on in our daily lives, ones that sustain the highest standard of living in the world for American families.    The United States leads the world in the production of cybersecurity products and systems that not only produce the software applications that keep our economy running, but also the information security products that protect our vital personal data, business information, and communications network. The treaties, agreements, and arrangements we have with our international trading partners play a fundamental role in allowing our U.S.-made products to be exported easily and without interference. And those are often intricate and detailed provisions. I am very pleased we are holding this hearing to learn more about one of the most complex issues facing international trade today. I look forward to the testimony of our witnesses. With that, I yield back.</t>
   </si>
   <si>
@@ -115,36 +154,54 @@
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman from Texas. Other members are reminded that opening statements may be submitted for the record. And as noted by others, we are pleased today to have with us a very distinguished panel of witnesses on an important topic, including Mr. Vann Van Diepen, the principal Deputy Assistant Secretary for the Bureau of International Security and Nonproliferation at the U.S. Department of State; Ms. Ann Ganzer, the Director of Conventional Arms Threat Reduction for the Bureau of International Security and Nonproliferation at the U.S. Department of State; the Honorable Kevin Wolf, the Assistant Secretary for Export Administration at the U.S. Department of Commerce; Dr. Phyllis Schneck, the Deputy Under Secretary for Cybersecurity and Communications for the National Protection and Programs Directorate at the U.S. Department of Homeland Security; Ms. Cheri Flynn McGuire, the vice president for Global Government Affairs and Cybersecurity Policy at Symantec; Mr. Iain Mulholland, the vice president for Engineering Trust and Assurance at VMware; Ms. Cristin Flynn Goodwin, the assistant general counsel for Cybersecurity at Microsoft; and, finally, Mr. Dean Garfield, the president and CEO of the Information Technology Industry Council.    Thank you all for being here today. The witnesses' full written statements will appear in the record. And at this time, I would ask all of the witnesses to stand and raise your right hand so that I can swear you in for your testimony.    Do each of you swear or affirm that the testimony you are about to provide today shall be the truth, the whole truth, and nothing but the truth so help you God? Let the record reflect that the witnesses answered in the affirmative. The chair now recognizes Mr. Van Diepen for his opening statement.</t>
   </si>
   <si>
+    <t>Van Diepen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Van Diepen. Thank you, Chairman Hurd and Chairman Ratcliffe, Ranking Members Kelly and Richmond, and members of the committees, for the opportunity to talk today about export control efforts in the challenging new area of cyber tools. As we've heard from you all, we hear almost daily about malicious cyber activities that disrupt businesses, compromise privacy, or threaten national security.    Congress itself has also recognized the overall cybersecurity threat in legislation. The 2014 National Defense Authorization Act required developing an integrated policy to control the proliferation of what it termed ``cyber weapons,'' including through multilateral enforcement activities and diplomatic engagement. To be most effective, export controls should be multilateral. The Wassenaar Arrangement has the responsibility for multilateral national security export controls on dual-use items not related to weapons of mass destruction, such as cyber tools. This 41-country regime was established in 1996 to contribute to regional and international security and stability by promoting transparency and greater responsibility in transfers of conventional arms and related dual-use goods and technologies, thus preventing destabilizing accumulations.    Upholding our international export control commitments is central to our ability to get other countries to uphold theirs, not just in Wassenaar, but in the nuclear, chemical, biological, and missile control regimes as well. Because these same cyber tools can also be used for beneficial purposes, such as identifying vulnerabilities and improving cybersecurity, we need to strike the appropriate balance in implementing such controls to promote national security objectives, while making sure that the controls' benefits clearly exceed any commercial or national security costs.    Recognizing the challenge in implementing the cyber control, the U.S. Government took the uncommon step of going through a public notice and comment process. The comments were instructive. And we take them very seriously. It is clear from the comments received that the first version of the proposed U.S. rule to implement the Wassenaar control missed the mark. And the interagency continues to work through the concerns raised.    Fortunately, the cyber control is included on the least sensitive portion of the Wassenaar list. This provides us with substantial flexibilities we can employ in the process of implementing that control nationally, just as most other Wassenaar members have done in already having implemented the cyber control for over a year without apparent controversy.    We appreciate your committee's interest in this issue. And we are committed to working closely with all the other stakeholders in the interagency, as well as industry, and the other relevant external stakeholders, to seek a balanced way forward that meets our important policy objectives while addressing the concerns raised. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Van Diepen. The chair now recognizes the Honorable Kevin Wolf for his statement.</t>
   </si>
   <si>
+    <t>Wolf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wolf. Thank you, Chairmen Hurd and Ratcliffe, Members Kelly and Richmond. My colleague from the State Department described well the background and purposes of the Wassenaar Arrangement. The U.S. Department of State leads the U.S. delegation to the Wassenaar Arrangement. But it is my agency, the Commerce Department's Bureau of Industry and Security, which is responsible for developing and administering the set of regulations, the Export Administration regulations that would implement the multilateral agreements that were just described. And in this case, the Wassenaar Arrangement for us pertains to dual-use items and some military items on the Wassenaar list.    Other agencies, primarily the Department of Defense, participates in developing proposed changes to these lists, proposed controls to submit to the Wassenaar and other arrangements, deciding which ones to agree upon, and then review the regulations that we would implement to implement the agreement. And then Congress also has technical advisory committees that work with us on reviewing the proposed changes and proposals to be submitted to the various regimes.    In December of 2013, the Wassenaar Arrangement approved new export controls on command and delivery platforms for intrusion software and related technology. Specifically, the entries in category 4 dealing with computers of the dual-use control list would control non-publicly available software that generates, operates, delivers, or communicates with intrusion software. And an intrusion software was defined as software designed to covertly gain access to a computer or other network device and, once inside, to extract or modify data or modify an execution path of the device to allow the execution of externally provided instructions.    Related hardware and technology entries would control systems and equipment for generating, operating, delivering, or communicating with this intrusion software. And then, also, technology for developing the intrusion software was controlled as well.    The original proposal for these controls came from another Wassenaar member in 2012. And the examples of the types of commercial hacking software intended to be captured by the control included those offered by Hacking Team from Italy, Gamma/Fin-Fisher from Germany, and Vupen in France.    The controls were novel in that they were the first foray by a multilateral regime into the area of offensive cyber tools. The agreed-upon entries covering software intentionally excluded intrusion software itself from control, that is, certain kinds of malware, because of a general understanding that everyone with a mobile device might have such software unwittingly on their device and didn't want to expose them to perpetual liability. In beginning, however, the process at Commerce of drafting the regulation to implement the control, we grew concerned that despite several exclusions set forth in the definition of intrusion software, the scope of the controls, particularly the developmental technology controls, might be far broader in scope than originally understood by Commerce and its advisory committees.    We particularly became concerned that the category 4 technology control list entry in the draft regulation technology for the development of intrusion software could inadvertently significantly harm both U.S. Government and U.S. private sector cybersecurity programs and efforts if implemented.    So in order to not take action that would inadvertently harm our Nation's ability to engage in critical cyber defense and related research work, we decided, in May of 2015, to take the unprecedented step of publishing these Wassenaar control list entries as a proposed rule with a request for private sector comments, rather than our usual step of publishing it as a final rule.    Our hope was that the private sector comments would give us a better sense for whether the rule would have unintended impacts on our cyber defense and cyber research ecosystems. All dual-use controls have consequences and impose cost on the private sector. That's the nature of controls. But this one was different because the impact would not just be on the economic bottom line of a company, but on our Government's and our Nation's ability to share efficiently and quickly the types of technology necessary to conduct cyber defense and related research.    Also, immediately following the publication of the proposed rule, we received questions from U.S. private sector and others in the U.S. Government about the intended scope of the controls. And in order to make sure that we addressed all of their concerns, we published a series of FAQs. As will be described later by our industry panelists and as is described in more detail in my testimony, we received over 260 comments, generally, all of them negative, describing several concerns that you've all summarized well in your opening statements.    I want to make clear that the administration has not made any decisions regarding what the next step will be other than that the next step will not be a final rule. We're continuing to review the comments. We're continuing to work with our colleagues in government and industry with expertise in equities and cyber defense and related research. We welcome all views and all information, which is why we thank you for this hearing and whatever input or suggestions or advice that you have for us. So thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Wolf. Dr. Schneck, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Schneck</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schneck. Thank you. Chairman Hurd, Chairman Ratcliffe, Ranking Member Kelly, Ranking Member Richmond, and members of these committees, thank you for the opportunity to testify today. And thank you as well for all the support that all of your committee continue to provide to the Department of Homeland Security, most recently in the Cybersecurity Act of 2015, which was discussed earlier. Because of that legislation, we will be able to, at the Department, with our industry partners, with our interagency partners, and global partners, share cyber threat information more rapidly, and in near real time.    We appreciate the critical part that export controls play in ensuring that bad-intentioned people do not get their hands on good technology to hurt others. We also appreciate the concerns expressed by our partners and mentioned in previous testimony that show how some of these controls that are talked about today can actually potentially hurt cybersecurity efforts.    So based on these concerns raised by industry and the potential impact on the Nation's cybersecurity, the Department of Homeland Security believes that the interagency together should reexamine the merits of the proposed rule. DHS plays an increasing role in cyber and in export control. And we seek a balance between getting to that right place in protecting dual-use technology, and also incorporating the best expertise globally and protecting our cyber infrastructure from the very rapid change that we see and the sophistication of the actors of which I and others have testified before you.    In my experience, before the 2-plus years I've spent at the Department, I was in private industry. I experienced product design. I experienced research. I experienced threat dissemination and sharing with both other private sector colleagues and companies, as well as our interagency partners in government, as well as around the world. That is the best thing that we can do to protect our cyber infrastructures is, as the Cybersecurity Act that you just gave us allows us to do, put threat pictures together, put indicators together, work with the smart people around the world at the speed of light, in the speed of cybersecurity that our adversaries are operating in.    We hear a lot about the Internet of things. That means that almost anything you can see and touch has a computer processor in it in the future. That means that all those things are exposed to cybersecurity vulnerabilities. And that means we need the power of speed to put that story together, to disseminate it rapidly, to share research, and design products that protect better. We need the collaboration.    In this environment, researchers and developers need to be able to work together with alacrity. They need that in the government. We need it in the private sector. And we need to be able to work together at the very speed and hopefully greater than that speed at which our adversaries are working today. A good example of how the Department works was in the Heartbleed episode in April, 2 years ago. The Department of Homeland Security received information from another government that there was a vulnerability in an open source encryption algorithm, as you well know. We were able to, through our United States Computer Emergency Response Team, disseminate that information internationally. Our CERT works, that's the Computer Emergency Response Team, our CERT works with over 300 different CERTs internationally to get that information out there.    Our cybersecurity companies and our private sector are global. Our government needs to work with other governments. The U.S. has taken a leadership role because of our ability to share and collaborate and push cybersecurity and cyber threat information out as far as we can. And companies and governments need these tools and need to be enabled to have the same alacrity with which our adversaries are enabled.    Our adversary works, as I mentioned before, without lawyers. They have plenty of money. They have no boundaries. And as was mentioned earlier, we want to bypass jurisdictional roadblocks. We thank you for that. We in cybersecurity need to bypass competitive roadblocks. We need to bypass time roadblocks. And we need to be able to collaborate, again, without interruption.    Cybersecurity is a joint effort, involving government, private sector, and academia. We welcome the chance to work together, our three agencies, our entire administration, the interagency, with all of our government partners to ensure, again, our global leadership in cybersecurity, our global ability to share this threat information. This is the main thing our adversaries cannot do. This is the product set that our companies can build for us. This is the ability for us as a government to leverage all that innovation in the private sector and push it forward.    And our position is we would like to, as an interagency together, reexamine the merits of that rule by striking a very good balance, getting it right, ensuring that we have all the benefits of the hard work that's done in export control, but also ensuring that cybersecurity doesn't stop. Anything we do to delay the collaboration between any smart mind that we can find, human or machine, enables our adversary. So thank you. And I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Dr. Schneck. The chair now recognizes Ms. McGuire for her opening statement.</t>
   </si>
   <si>
+    <t>McGuire</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McGuire. Chairman Ratcliffe, Chairman Hurd, Ranking Member Kelly, and Chairman Thompson, other distinguished members of the committee, thank you for the opportunity to testify today on behalf of Symantec Corporation. This hearing is extremely timely. And we very much appreciate your shining a spotlight on a vital issue that threatens the cybersecurity of not only the U.S. technology industry, but also that of all U.S. critical infrastructure companies and organizations that rely on cybersecurity.    The proposed U.S. cybersecurity export regulation under the Wassenaar Arrangement would severely damage our ability to innovate and develop new cybersecurity product, conduct real-time global research, and share information on vulnerabilities and exploits, as well as to test and secure global networks and new technology products.    These new regulations would restrict the free flow of information across borders and impose major new export compliance burdens on all U.S. multinational industries. While the regulation grew out of well-intended concerns over the availability of intrusion and surveillance software to repressive regimes, the end result has swept in the core functionality of cybersecurity products and technology, and puts untenable restrictions on security testing and research.    The fact is, this is not an export control on a few specific tools. It is a stringent new regulation on the entire cybersecurity industry, and our customers that would harm the economic and national security of the United States. Ultimately, it would leave every American less protected and vulnerable to cyber criminals and cyber terrorists.    The regulations would capture many common and critical security tools. One of these is penetration testing. These tests are designed to stress systems just as real attackers would and expose weaknesses that would allow an organization to improve its defenses. Yet, under the proposed regulations, financial services, health care, energy, and other multinational companies would need export licenses merely to do security testing on their overseas systems and products.    We have other concerns, but I feel compelled that I need to raise one more. As you all know, Congress and the administration have just acted to improve cyber threat information sharing. Yet, these regulations would undo much of that effort. As many of you have said today, cybersecurity knows no borders. But at Symantec, in our business practices, we also operate security operations centers around the world. Under these regulations, we would be required to apply for and wait for an export license before discussing much of our security research with a U.S. citizen who was working in one of our international centers. And the underlying rule does not even envision the accommodation of real-time machine-to-machine information sharing across borders.    As we all know, cyber threats move at light speed, not bureaucratic speed. And as Chairman Hurd said, the clock starts ticking when an indicator of compromise is identified.    To provide some perspective, Symantec's intrusion prevention systems blocked approximately 300 million exploit kits for our global customers in 2015, one of the exact technologies that would be restricted under this rule. Companies like ours rely on unfettered research and communication to innovate and develop the next generation of security technologies. At Symantec, our preliminary assessment showed we would need at least 1,000 new licenses. Today, we need less than a dozen. But the truth is that we've stopped counting, as the number is likely to go even higher. Coupled with an average lead time of 6 months to develop a license application, there is no doubt that these new burdens would cripple our ability to respond to real-time threats and cyber attacks.    Another issue is that countries that are party to the Wassenaar Arrangement and have implemented the rule have taken vastly different approaches. There are multiple interpretations of the underlying language that have led to confusion, and implementation differs significantly from country to country. In fact, today, we at Symantec are holding up a product released in one country, while our lawyers try to figure out the next steps that should be taken. And we've seen other U.S. companies who are already pulling back on international research engagements because their attorneys say there is too much risk for cross-border research flows.    The simple fact is that the rule will do little to stop the spread of malicious intrusion and surveillance tools, or curtail illicit hacking and intrusions in any way. In fact, the current rule would do just the opposite. It would handcuff security vendors and multinational companies from using all the tools available to them, while imposing no restrictions on cyber criminals. After hearing significant concerns, the Department of Commerce, to its credit, quickly withdrew the proposed rule. The conversations that have followed have been extensive and frank, but, ultimately, unsuccessful. This is not because of a lack of good faith on either side, but because of defects routed in the 2013 Wassenaar cybersecurity agreement.    For this reason, we strongly recommend that the rule be remanded back to Wassenaar to be renegotiated and more narrowly defined. Of course, we look forward to continuing to work with Congress and our U.S. Government partners, to share our technical expertise on this very important issue to our industry and critical infrastructure in the U.S. Thank you for the opportunity to testify today. And I look forward to any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Ms. McGuire. The chair now recognizes Mr. Mulholland for his opening statement.</t>
   </si>
   <si>
+    <t>Mulholland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mulholland. Chairmen Hurd and Ratcliffe, Ranking Members Kelly and Richmond, thank you for the opportunity to testify today at this important hearing. I'm Iain Mulholland, the head of the Engineering Trust and Assurance Group at VMware, and I am our senior security engineer. VMware is headquartered in Palo Alto, California, and is the fourth largest software company in the world, with 2014 revenues of over $6 billion and over 18,000 employees globally. Ironically, I may be one of the few people in the room, other than, perhaps, Ms. Ganzer, who has actually spent any time in Wassenaar, as my then-fiancee lived there in the 1990s. I spent a summer in Wassenaar reading books on computer security during my transition out of service in the British military.    I now have almost 20 years' experience in the software security engineering field. I came to the U.S. in 2002 as one of the early members of the Microsoft Trustworthy Computing Group. And in 2011, I established VMware's Product Security Group.    If implemented, the 2013 Wassenaar Arrangement could undermine our strong security posture and hinder our ability to adequately protect our customers and our products. It would introduce significant hurdles to rapidly receiving and sharing threat information, in particular, vulnerability exploit code that is critical to the swift development of security patches that protect software users, something that Chairman Hurd alluded to.    This introduction of a requirement to apply for and obtain licenses during critical, time-sensitive responses to security vulnerabilities, which may already be under active exploitation, creates an asymmetry that is to an attackers' advantage, since, unlike the defender, the attacker has few such constraints.    In my written testimony, I included three different examples that speak to the core challenges that implementing the 2013 rules would present not only VMware, but as some testimony has already alluded to, other U.S. technology companies. In the interest of time, I would like to share one of them with you. In the last 12 months, VMware has collaborated with several small security research organizations in Europe to remediate critical security vulnerabilities that they identified in our products. These vulnerabilities, if left unpatched, could have allowed a malicious attacker to take complete control over critical infrastructure. During the course of our investigations, researchers often provide VMware with sample exploit code that demonstrates the flaw to our security response team.    Exploit code is often key in accelerating the speed with which our engineers are able to understand the flaw and develop a patch to protect our customers. If a picture paints 1,000 words, then in the field of software security, the exploit is our picture. In one example, the security researcher was in Poland, his parent company, in the Netherlands, the coordinating VMware incident response team in the U.S. and Canada, and the team responsible for developing the security patch, in India. In addition, several of our U.S.-based employees were non-U.S. persons. In this example, VMware and the researcher would have required multiple licenses, one from Poland to the Netherlands, from Poland to the U.S., from the Netherlands to the U.S., from the U.S. to Canada, and several within the U.S. just to share information across cubical walls with non-U.S. persons based in the United States.    Security vulnerability reports typically come through our industry standard security at VMware.com email address, using a security research protocol that has been in use in our industry for over 15 years. In 2015 alone, over half the security vulnerabilities reported to VMware came from individuals or organizations located in Wassenaar countries. In most cases, an export license would have been required for the researcher to report the security issue to us. A security researcher may not even have known who or where they were exporting an export to, since security at VMware.com is staffed on a rotational basis by a global team, half of whom are outside of the U.S. or non-U.S. persons.    It is improbable that these small research companies or individuals will take on the administrative and financial burden of applying for potentially multiple export licenses simply to report a security vulnerability. And as a result, this important source of information will dry up, or much worse, end up in the underground vulnerability market, leaving vulnerabilities unreported, unpatched, and under active exploitation.    Moving forward, we recommend the BIS and the Department of Commerce continue to keep all options on the table. We applaud them for reconsidering their original draft, and hosting a series of public forums with a range of stakeholders to try and find a reasonable solution which we are pleased to participate in.    Ultimately, however, the U.S. should return to Wassenaar and renegotiate the 2013 arrangement. We live in a global digital ecosystem that is not constrained by borders. We receive information about threats that affect the security of our products and our customers from all over the world. Even if the U.S. fixes its domestic policy, it will not enable us to continue to receive and share critical and timely information that affects the security of our customers on products from outside our borders. We must have the tools and resources on hand to act immediately and continue to provide world class secure software and services and ensure customer safety. Unfortunately, the 2013 Wassenaar agreement would undermine our ability to do so.    I applaud the leadership of the committee for holding this hearing today. Thank you for the opportunity to testify. And I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Mulholland. Ms. Goodwin, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Goodwin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Goodwin. Chairman Ratcliffe, Chairman Hurd, Ranking Member Richmond, Ranking Member Kelly, Chairman McCaul, Chairman Thompson, members of the subcommittees, my name is Cristin Flynn Goodwin. And I'm assistant general counsel for Cybersecurity at Microsoft. I advise a wide range of teams on cybersecurity legal issues, and I manage Microsoft's government Security Program working with governments around the world. Thank you for convening today's hearing and your bipartisan leadership to support our Nation's cybersecurity. Microsoft has a deep commitment to cybersecurity. And I'm happy to be here today to discuss our perspective of the Wassenaar Arrangement's controls on intrusion software agreed to at the December 2013 Plenary and the proposed U.S. implementation.    As detailed in my written testimony, Microsoft believes the Wassenaar Arrangement's approach to controlling intrusion software and the broad export licensing requirements proposed in the U.S. would undermine security research, incident response, cyber collaboration, and product innovation. We agree with your assessment, assessed in a bipartisan letter to Ambassador Rice last month, that without a significant overhaul, these broad licensing requirements could seriously hinder national security.    The intent of the drafters of these provisions was to prevent the export of surveillance software to criminal organizations or repressive regimes, which is admirable and important. Unfortunately, due to the very broad definition of intrusion software, extensive range of security technologies will now be subject to broad and burdensome licensing requirements in the U.S. If left unchanged, the proposed definition will have a chilling effect on the development of products and services and on the discovery of existing vulnerabilities. It will also significantly impact security incident response, and create new barriers for those seeking to secure themselves against increasingly persistent and sophisticated cyber threats. To demonstrate the impact, consider these three very common cybersecurity scenarios.    First, a large critical infrastructure provider based in Germany is concerned that there is an attacker present on its corporate network and stealing sensitive information. The company calls in an American security company to come to Germany to help investigate whether the attacker is still present, and to use tools to find out what the attacker might be trying to steal or access without tipping them off.    Second, a cybersecurity researcher with a small company in the United States finds a new piece of malware that hides itself on a user's machine, and then automatically deletes log files that indicate where an attacker is hiding on a machine. The researcher wants to share his analysis of the malware and collaborate with a software vendor in the U.S.    Third, an American software company is developing a new product for commercial sale. Its internal security team, with members in the U.S., Australia, and Japan, wants to develop a tool that will help them test the product's security measures before it is sold.    What do these scenarios have in common? Security response, collaboration, and product innovation stops until new export licenses can be processed, which can take weeks or even months. It also means that the attacker will be present for weeks on the German network. The malware identified by the researcher will continue affecting machines. And the software company will be delayed in its effort to develop a new product.    Clearly, none of this is in the best interest of American cybersecurity. The United States must lead the effort to re-set this flawed approach internationally. Security experts should not have to pick up the phone in the middle of the night to call in an export control adviser to determine whether they can share certain technical information about an ongoing attack or as part of their day-to-day work, wait to collaborate with internal or external colleagues on security priorities. In today's global security environment, the ability to collaborate with peers and colleagues should be the default, not the exception.    As both of your subcommittees know well, developing cybersecurity policy requires a deep understanding of the problem, broad input from experts, engagement with the executive branch and Congress, and a transparent process.    Regrettably, to the detriment of cybersecurity, the Wassenaar Arrangement definition of intrusion software does not reflect this type of inclusive process. It must be renegotiated.    In conclusion, Microsoft is a committed participant in the public-private partnership, and strongly encourages Congress and the executive branch to take the necessary steps internationally, and with our Wassenaar partners, to undo the overly broad and complicated export control requirements. Concurrently, the administration should suspend any related rulemaking efforts until a new agreement can be reached, making use of a robust, consultative process.</t>
   </si>
   <si>
@@ -154,12 +211,18 @@
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Ms. Goodwin. The chair now recognizes the very patient Mr. Garfield for his opening statement.</t>
   </si>
   <si>
+    <t>Garfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garfield. Chairman Ratcliffe, Chairman Hurd, Ranking Member Kelly, Ranking Member Richmond, members of the committee, on behalf of 64 of the most dynamic and innovative companies in the world, some of whom are also at this table, we thank you for hosting this hearing, inviting us to testify, and for your bipartisan approach on this issue, including the letter that you sent at the end of last year. I've listened carefully to the testimony of the other folks on this panel, and rather than repeating what they've already said so eloquently, I'll try to focus in on some of the questions that were implicit in your testimony, including why is this important? What should we do about Wassenaar? Can we simply revise the rules? And what are our recommendations or next step?    As to the first, why is this important, our company, the companies that are members of ITI, are really the technology platform for the entire world. There is no sector or industry that's exempted from the implications of the Wassenaar Arrangement. Increasingly, cross-border data flows are the steam of the economic engine worldwide as well as innovation, the innovation ecosystem. The Wassenaar Arrangement impacts all businesses, whether they are technology-based or otherwise.    Can the defects in the rules be cured? Our recommendation and answer is no. In spite of the best intentions of the drafters, the fundamental flaws in the proposed rules emanate from the arrangement itself. And I'll point to three areas that are--that speak to that.    One, the presumptions, the problematic presumptions, around drawing lines between intrusion software, as well as drawing lines around IP network surveillance systems are found in the rules themselves, but are very much, in fact, grounded in the Wassenaar Arrangement as developed in 2013.    Secondly, the question that Chairman Hurd raised and Ranking Member Kelly alluded to around whether you can actually deal with the fast-paced world of cybersecurity in cross-border data flows through the lumbering world that is limited by borders in export controls, the answer is no.    Third, what is really needed here is a multinational approach, as a number of the members on this panel and the committee have noted, given the nature of our economy today, its heavy reliance on cross-border data flows, as well as the nature of cybersecurity that's been advanced by the work of this Congress through the Cybersecurity Act of 2015, as well as the Department of Commerce through NIST.    Increasingly, the way to deal with cybersecurity issues is on a multinational basis through the sharing of cyber threat information. The Wassenaar Arrangement stands in the way of that.    Relatedly, there are a number of nations that are a critical part of advancing cybersecurity that are not a part of the Wassenaar Arrangement, including Brazil, India, and China. So what do we do? Our recommendation is consistent with the private sector witnesses on this panel. Given that the root of the challenge is grounded in the 2013 developments in Wassenaar and the Wassenaar Arrangement, our recommendation is to go back to Wassenaar to cure those fatal defects. We say that not out of taking any pride in suggesting that the United States go back and renegotiate this agreement, but from our perspective, it's truly an opportunity to exercise leadership.    There are a number of countries that are struggling with dealing with these same issues, and the United States has an opportunity to provide global leadership in dealing with what are truly complex issues.    Secondly, it's important that whatever is done next is informed by experts, including many of those that are in this room, and some of who are not.    I thank the committee, again, for this opportunity to testify. And I look forward to your questions and to working with you towards a solution. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Garfield.    The chair now recognizes himself for 5 minutes of questions.    And I want to start, Ms. Ganzer, with you, because you were the only witness that didn't have a statement, and there was some intimation about--about your role, perhaps, in negotiating the Wassenaar Arrangement of 2013 and the inclusion of intrusion software. And so I want to take just a minute of my time to give you an opportunity to address whether or not that's accurate, or what your role was, if any?</t>
   </si>
   <si>
+    <t>Ganzer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ganzer. Thank you, Mr. Chairman. I appreciate the opportunity to be here today. In my role as the Director of Conventional Arms Threat Reduction, I am the head of delegation for the Wassenaar Arrangement writ large for the United States. So I was in the chair for the United States when the control was adopted and agreed to on behalf of the United States. I was not responsible, specifically, in the room when it was negotiated. The administration has an integrated team of members from the interagency generally, including the Commerce and Defense Departments; Homeland Security may be there; Energy may be there; depending on what issue is being negotiated. But the administration and an integrated team negotiated these controls. And, so, there would have been an integrated team that agreed to the specifics.    I would note that the control was intended to capture purpose-built suites of operated control--operator controlled software that extract--are designed to extract data from a system, modify a system or its data, or modify the system to execute a malicious operator's instructions without the systems owner's knowledge. That was what we intended to control, and that is what we thought we controlled. So the reaction from our industry colleagues here was quite a prize to us. And we continue to work the issue within the administration to--to do no harm, as some of the members mentioned in their statements. Thank you.</t>
   </si>
   <si>
@@ -217,6 +280,9 @@
     <t xml:space="preserve">    Mr. Ratcliffe. At this time, the chair recognizes my friend and colleague from Texas, Congressman Farenthold.</t>
   </si>
   <si>
+    <t>Farenthold</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much, Mr. Chairman.    And I wanted to start out with Ms. Goodwin from Microsoft. We've talked a little bit about, today, about how some of this software is available from countries that aren't a party to our agreement. I know Microsoft is active in fighting software piracy as well. Even in the domestic, international stuff that we're seeking to regulate, software is pretty portable and pretty easy to pirate. Do you think there's a practical way we can actually put export control on software against, obviously, a hacker who would be typically unethical to begin with, or a state actor that's hostile to us? I imagine y'all struggle pretty hard from keeping Microsoft Word from getting pirated?</t>
   </si>
   <si>
@@ -268,6 +334,12 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    And it's fascinating. Every time I come to a cyber issue, it's just incredibly fascinating. I remember--I'm from California, so, of course, we think that we have encryption and cyber as far cutting edge as possible.    I remember, Mr. Chairman, 20 years ago, when I sat on the Armed Services Committee, we had instituted a military--a bloc on sending encryption out. And at the time, it was Adam Smith and myself were the only ones who were going, wait a minute, if we do that, we're going to lose encryption ability, or technology lead in California or the United States. And, in fact, we struggled, as Symantec and others will tell you, prior to the company, we struggled quite a bit until we were able to undo some of those restrictions.    So you were surprised, even though you had--you thought you had industry covered through the system. So my question to you would be, have you gone back and rethought different levels you might have interacted at the time with respect to that so we don't have the same type of surprise again? Because these issues of export controls and what is used and what is the standard and who's setting the standard and who's got the keys, it's going to come up over and over and over again.    So have you--have any of you gone back and rethought it, say, there might--where you could have interjected industry earlier, or was industry just sort of like, yeah, yeah, yeah? Sometimes that happens here in the Congress. You know, someone comes up to you, yeah, yeah, yeah, sign me on. Then you go back, and you think about it, and you have to pick up the phone and say, wait a minute, maybe what I agreed to isn't exactly what I was thinking at the time.</t>
   </si>
   <si>
@@ -301,6 +373,12 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    Good afternoon, ladies and gentlemen. Thank you for being here.    Ms. Ganzer, can you clarify something for me, because I was running in and out to other--other hearings.    What specifically was your role in this negotiation? Are you--were you the person that made the final decision in the Wassenaar Agreement?</t>
   </si>
   <si>
@@ -385,6 +463,9 @@
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman.    The chair now recognizes the gentleman from Virginia, Mr. Connolly.</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. Welcome to a very large panel.    Mr. Wolf, I want to go back to the beginning to understand the process. So the Wassenaar Arrangement involving 41 countries, a lot of those members come to us saying, will you help? We think we need some kind of expert control over cybersecurity countermeasures. Is that correct?</t>
   </si>
   <si>
@@ -475,6 +556,9 @@
     <t xml:space="preserve">    Mr. Ratcliffe. I thank the gentleman from Virginia for his questions and his comments.    The chair now recognizes the gentleman from North Carolina, Mr. Walker.</t>
   </si>
   <si>
+    <t>Walker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    I appreciate the panel being out today for an extended witness time, but we do appreciate all of you being here, as well as staff.    Recently completing my first year in the House, it has opened my eyes to the problems that we have specifically in the cybersecurity arena. Also serving on the Department--or the Committee on Homeland Security, as well as the co-chair of the cloud caucus, has really sent me studying this issue and should cause us all great concern.    Congress recently passed the cybersecurity legislation designed to facilitate the efficient and effective sharing of cyber threat data and indicators between the private and the public sectors.    Ms. Schneck, the DHS has a big role to play in that process. The question for you is how would the proposed Bureau of Industry and Security rule, as drafted, impact that sharing?</t>
   </si>
   <si>
@@ -556,6 +640,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. I appreciate y'all coming. I am just going to make one comment, and then I will yield to Congressman Hurd, if that's okay.    First of all, when I looked at the participating countries, I don't see a lot of Asian competitors there. And I know what I would think if I was in private business, y'all. So you were not talking about the obvious. But I had a lot of competition coming from my--from Asia and India, and we can't be playing a different game than them, or we will lose.    So I understand the need to protect the homeland, but there's something obviously wrong with this list if you're going to--if you were trying to influence me to join up, and I saw that list, after my technology had already been stolen a half dozen times, it would be a tough, tough, sell.    Number two, with my facilities around the world, which we have, which I had, customers--you know, customers and facilities all on these lists, the foreign corrupt practice laws and everything, I don't even know how to do this. I wouldn't know how to implement it. It just feels, like, it hits me like a freight train here.    And so--and, look, I spent a lot of time doing this. So, you know, there's got to be--you would have to put it in terms. I spent, you know, yesterday and today trying to think about these things and think to myself and my own business model, how would I do this? And I never really got there. How can I compete, take care of my customers, take care of my competitors, and my suppliers across all these different borders, and not break the law and keep my country safe? So if y'all are going to do that to sitting CEOs, I recommend that you simplify it so we can understand how we get to do all those things at the same time, because I spent a whole life doing it, and I ain't getting there just yet.    I yield back to Mr. Hurd.</t>
   </si>
   <si>
@@ -683,6 +773,12 @@
   </si>
   <si>
     <t>400199</t>
+  </si>
+  <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you so very much. We have a vote on the floor of the House, but I indicated that this was so important and provocative, I'm going to try to be as quickly as I can. And be as successful as the on-site kick was last evening.    But let me try to get to the government. Mr. Wolf and our two distinguished State Department representatives, you have had a series of questions by members. Can I get a yes-or-no answer that you are going back to the drawing board. We know that there is an agreement that's going to be coming forward, suggestions and ideas, to give us an opportunity to go back to this issue again, Ms. Ganzer. But am I sensing that you understand that there needs to be a regulatory revisit on these issues?    Mr. Wolf, yes or no, please?</t>
@@ -1085,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1189,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,5381 +1211,6202 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G68" t="s">
+        <v>106</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G74" t="s">
+        <v>106</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G78" t="s">
+        <v>119</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>119</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G86" t="s">
+        <v>119</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>119</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G92" t="s">
+        <v>119</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>119</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G96" t="s">
+        <v>119</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G98" t="s">
+        <v>119</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>94</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G100" t="s">
+        <v>119</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G102" t="s">
+        <v>119</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>94</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>49</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>149</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>149</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>49</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>149</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>149</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>149</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>49</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>149</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>55</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>149</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>149</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>149</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>149</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
       <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>180</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>52</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>180</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>180</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>52</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>180</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>52</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>180</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>49</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>180</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>61</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>180</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G151" t="s">
+        <v>26</v>
+      </c>
       <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G153" t="s">
+        <v>26</v>
+      </c>
       <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>46</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G155" t="s">
+        <v>26</v>
+      </c>
       <c r="H155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G157" t="s">
+        <v>26</v>
+      </c>
       <c r="H157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G159" t="s">
+        <v>26</v>
+      </c>
       <c r="H159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>46</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G161" t="s">
+        <v>26</v>
+      </c>
       <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
       <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G163" t="s">
+        <v>208</v>
+      </c>
       <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>49</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>49</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>65</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>49</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>49</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>49</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>49</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>46</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>46</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>46</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>46</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>46</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>68</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>68</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>49</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>49</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G204" t="s">
+        <v>16</v>
+      </c>
       <c r="H204" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I204" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>222</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G205" t="s">
+        <v>253</v>
+      </c>
       <c r="H205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I205" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>49</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>222</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G207" t="s">
+        <v>253</v>
+      </c>
       <c r="H207" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>222</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G209" t="s">
+        <v>253</v>
+      </c>
       <c r="H209" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>46</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>222</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G211" t="s">
+        <v>253</v>
+      </c>
       <c r="H211" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I211" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>65</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>222</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G213" t="s">
+        <v>253</v>
+      </c>
       <c r="H213" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I213" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>61</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>222</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G215" t="s">
+        <v>253</v>
+      </c>
       <c r="H215" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I215" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>58</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>58</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>222</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G218" t="s">
+        <v>253</v>
+      </c>
       <c r="H218" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I218" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>55</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>222</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G220" t="s">
+        <v>253</v>
+      </c>
       <c r="H220" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>52</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>222</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G222" t="s">
+        <v>253</v>
+      </c>
       <c r="H222" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I222" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G223" t="s">
+        <v>16</v>
+      </c>
       <c r="H223" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I223" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>222</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G224" t="s">
+        <v>253</v>
+      </c>
       <c r="H224" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I224" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G225" t="s">
+        <v>16</v>
+      </c>
       <c r="H225" t="s">
-        <v>240</v>
+        <v>17</v>
+      </c>
+      <c r="I225" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23401.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23401.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ratcliffe</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>412432</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Richmond</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Langevin</t>
   </si>
   <si>
@@ -110,6 +122,9 @@
   </si>
   <si>
     <t>400654</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>McCaul</t>
@@ -1181,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,7 +1204,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,6199 +1229,6572 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>88</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>88</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>68</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>93</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I72" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I78" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>46</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>49</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>54</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>52</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>52</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>49</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>54</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>49</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>68</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>73</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J96" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>46</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>46</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>49</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>149</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>154</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>49</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>149</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>154</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>149</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>49</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>149</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>154</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>49</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>149</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>154</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>49</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>149</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>154</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>49</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>54</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>154</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>49</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>54</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>154</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>54</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>154</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>49</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>54</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>154</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>55</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>60</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>149</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>154</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>55</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>60</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>149</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>154</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>58</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>63</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>149</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>154</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>58</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>63</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>149</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>154</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>58</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>63</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>149</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>154</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>180</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>185</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>52</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>57</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>180</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>185</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>52</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>180</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>52</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>180</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>185</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>52</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>180</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>185</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>49</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>54</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>180</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>185</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>61</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>66</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" t="s">
-        <v>180</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>185</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G151" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H151" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G153" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I153" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>46</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>51</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G155" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I155" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>51</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G157" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I157" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>46</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>51</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G159" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I159" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J159" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>46</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G161" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I161" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I162" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G163" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="H163" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>49</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>54</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="s">
-        <v>49</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>54</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>65</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>70</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" t="s">
-        <v>49</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>54</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>49</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>54</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>49</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>54</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>49</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>54</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>46</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>51</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>46</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>51</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>46</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>51</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
-        <v>46</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>51</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" t="s">
-        <v>46</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>51</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="s">
-        <v>46</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>51</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>68</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>73</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" t="s">
-        <v>68</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>13</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" t="s">
-        <v>68</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>73</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" t="s">
-        <v>13</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" t="s">
-        <v>68</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>73</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" t="s">
-        <v>49</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>54</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" t="s">
-        <v>49</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>54</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G204" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I204" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J204" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G205" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H205" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I205" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="s">
-        <v>49</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>54</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G207" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H207" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I207" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" t="s">
-        <v>68</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>73</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G209" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H209" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I209" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J209" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" t="s">
-        <v>46</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>51</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G211" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H211" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I211" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" t="s">
-        <v>65</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>70</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G213" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H213" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I213" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J213" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" t="s">
-        <v>61</v>
-      </c>
-      <c r="H214" t="s"/>
-      <c r="I214" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
+        <v>66</v>
+      </c>
+      <c r="I214" t="s"/>
+      <c r="J214" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G215" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H215" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I215" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J215" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" t="s">
-        <v>58</v>
-      </c>
-      <c r="H216" t="s"/>
-      <c r="I216" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
+        <v>63</v>
+      </c>
+      <c r="I216" t="s"/>
+      <c r="J216" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" t="s">
-        <v>58</v>
-      </c>
-      <c r="H217" t="s"/>
-      <c r="I217" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
+        <v>63</v>
+      </c>
+      <c r="I217" t="s"/>
+      <c r="J217" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G218" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H218" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I218" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J218" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" t="s">
-        <v>55</v>
-      </c>
-      <c r="H219" t="s"/>
-      <c r="I219" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
+        <v>60</v>
+      </c>
+      <c r="I219" t="s"/>
+      <c r="J219" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G220" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H220" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I220" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J220" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" t="s">
-        <v>52</v>
-      </c>
-      <c r="H221" t="s"/>
-      <c r="I221" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
+        <v>57</v>
+      </c>
+      <c r="I221" t="s"/>
+      <c r="J221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G222" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H222" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I222" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J222" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G223" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H223" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I223" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J223" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G224" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H224" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I224" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J224" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H225" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I225" t="s">
-        <v>272</v>
+        <v>19</v>
+      </c>
+      <c r="J225" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
